--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7455000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8228000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8541000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8269000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7879000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8179000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8504000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7829000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8179000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7905000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7462000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6894000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7107000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6614000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7136000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7382000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7236000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6956000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7193000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7305000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7184000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6834000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7169000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6787000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6469000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6082000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6113000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1092000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1159000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1033000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>923000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>986000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1199000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1119000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>995000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1010000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1118000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>993000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>812000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>994000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E12" s="3">
         <v>190000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>176000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>179000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>173000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>178000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>177000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>175000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>172000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>192000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>189000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>196000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>211000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>262000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8523000</v>
+      </c>
+      <c r="E14" s="3">
         <v>209000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12692000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-43000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>184000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2796000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>591000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>82000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>676000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15437000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7664000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20370000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7529000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7241000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7442000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7587000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7657000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7117000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10266000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7140000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7366000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6473000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7149000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7982000</v>
+      </c>
+      <c r="E18" s="3">
         <v>564000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>740000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>638000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>737000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>917000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>646000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>712000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>765000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>421000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>48000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>28000</v>
       </c>
       <c r="L20" s="3">
         <v>28000</v>
       </c>
       <c r="M20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N20" s="3">
         <v>73000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>92000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>70000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-7219000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1442000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1709000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1575000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1672000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1845000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1570000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1614000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1794000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1174000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1480000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>901000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E22" s="3">
         <v>142000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>162000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>178000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>163000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>105000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>171000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>147000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>97000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>151000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>171000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>157000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>99000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8089000</v>
+      </c>
+      <c r="E23" s="3">
         <v>452000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>593000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>509000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>648000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>787000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>547000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>643000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>677000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>334000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-721000</v>
+      </c>
+      <c r="E24" s="3">
         <v>109000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-598000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>79000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>106000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>113000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>98000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-7368000</v>
+      </c>
+      <c r="E26" s="3">
         <v>343000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>494000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>430000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>549000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>658000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>441000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>530000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>556000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-81000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>284000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-7376000</v>
+      </c>
+      <c r="E27" s="3">
         <v>333000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>492000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>421000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>539000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>644000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>430000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>525000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>545000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-74000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>279000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1664,11 +1725,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1676,14 +1737,17 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-28000</v>
       </c>
       <c r="L32" s="3">
         <v>-28000</v>
       </c>
       <c r="M32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-73000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-92000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-70000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>73000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7376000</v>
+      </c>
+      <c r="E33" s="3">
         <v>333000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>492000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>421000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>539000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>644000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>430000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>525000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>545000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-74000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>279000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7376000</v>
+      </c>
+      <c r="E35" s="3">
         <v>333000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>492000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>421000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>539000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>644000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>430000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>525000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>545000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-74000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>279000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1137000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1183000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1466000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1230000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1433000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1493000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1461000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1865000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1799000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1690000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1903000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1902000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2929000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1030000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1109000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>882000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>925000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1344000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1361000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1588000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3290000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3262000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4315000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5451000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6328000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7486000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7747000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8332000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8471000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8171000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7881000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8409000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8606000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8472000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8084000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9436000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8925000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8636000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9387000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4130000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4341000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4389000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4224000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4010000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4108000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4120000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4174000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4046000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4308000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4338000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4288000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4225000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1288000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1486000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1186000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1125000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1223000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1063000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1112000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1125000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1244000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1278000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1218000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1792000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1606000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16266000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15530000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16151000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16333000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15773000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15731000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16483000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16900000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18055000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18497000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19914000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21273000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21883000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23927000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1565000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1335000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1558000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1544000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1538000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1497000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1487000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1483000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1519000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1481000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1566000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1720000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8550000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9270000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9605000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11359000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11533000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11679000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11739000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11504000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11556000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11576000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12338000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12358000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12507000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12821000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16597000</v>
+      </c>
+      <c r="E49" s="3">
         <v>23131000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23394000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33435000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33556000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33658000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34064000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34213000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34337000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34472000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34653000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34694000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34788000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34845000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5666000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6816000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7505000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7906000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7915000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7901000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6263000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6052000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6047000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5923000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5183000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4971000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5277000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4882000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48594000</v>
+      </c>
+      <c r="E54" s="3">
         <v>56312000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57990000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70591000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70321000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70507000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70046000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70156000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71478000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71987000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73569000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74862000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76175000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77956000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10168000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10663000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10364000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9851000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9702000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10223000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9419000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9367000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9598000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10036000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9676000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9413000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9380000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9939000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E58" s="3">
         <v>524000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>340000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>98000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1407000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3215000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3736000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4586000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3324000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1289000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2224000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2449000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3153000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1911000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1779000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1824000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1896000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1856000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1966000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1963000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2011000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1922000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2049000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1890000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1947000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1967000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13262000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13098000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12483000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11773000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11697000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13486000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14600000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15066000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16195000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15282000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13014000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13527000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13776000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15059000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15409000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14770000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16333000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16978000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16449000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14644000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14159000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13865000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13526000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14875000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15871000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16600000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16538000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16463000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3940000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4268000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4847000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5567000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5791000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4339000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4328000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4431000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4569000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4674000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4783000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4807000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4905000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33033000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32552000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34077000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34739000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34218000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34345000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33513000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33672000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34554000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35145000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33996000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35342000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35569000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36878000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10681000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18751000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19111000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31186000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31386000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31658000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31712000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31760000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32022000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32190000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35136000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35284000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36052000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36470000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15561000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23760000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23913000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35852000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36103000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36162000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36533000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36484000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36924000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36842000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39573000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39520000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40606000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41078000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7376000</v>
+      </c>
+      <c r="E81" s="3">
         <v>333000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>492000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>421000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>539000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>644000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>430000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>525000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>545000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-74000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>279000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E83" s="3">
         <v>848000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>938000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>903000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>919000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>887000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>876000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>874000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>906000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>956000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>986000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>989000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>784000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2252000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1745000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1108000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>326000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2331000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1827000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>987000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>568000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2251000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1898000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>858000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>656000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2013000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-494000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-413000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-404000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-413000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-621000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-565000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-520000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-454000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-625000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-598000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-503000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-381000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-654000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1312000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-203000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-934000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-644000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-230000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-315000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-895000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-112000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>282000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>221000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>473000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,34 +4628,34 @@
         <v>-692000</v>
       </c>
       <c r="F96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-693000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-692000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-693000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-692000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-692000</v>
       </c>
       <c r="L96" s="3">
         <v>-692000</v>
       </c>
       <c r="M96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-693000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-696000</v>
       </c>
       <c r="P96" s="3">
         <v>-696000</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-234000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-297000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-787000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>278000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-283000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>236000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-203000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-404000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>109000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-213000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-512000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5356000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7455000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8228000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8541000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8269000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7879000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8179000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8504000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8303000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7829000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8179000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7905000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7462000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6894000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7107000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4925000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6614000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7136000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7382000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7236000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6956000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7193000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7305000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7184000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6834000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7169000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6787000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6469000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6082000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6113000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E10" s="3">
         <v>841000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1092000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1159000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1033000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>923000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>986000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1199000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1119000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>995000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1010000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1118000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>993000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>812000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>994000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E12" s="3">
         <v>173000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>190000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>176000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>179000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>173000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>178000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>177000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>175000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>172000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>192000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>189000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>196000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>211000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>262000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8523000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>209000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12692000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-43000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>184000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2796000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>591000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>82000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>676000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8872000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15437000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7664000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20370000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7529000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7241000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7442000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7587000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7657000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7117000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10266000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7366000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6473000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7149000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-3516000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>564000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>740000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>638000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>737000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>917000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>646000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>712000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>765000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>421000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>28000</v>
       </c>
       <c r="M20" s="3">
         <v>28000</v>
       </c>
       <c r="N20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="O20" s="3">
         <v>73000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>92000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>70000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-73000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2971000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1442000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1709000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1575000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1672000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1845000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1570000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1614000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1794000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1174000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1480000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>901000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
         <v>78000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>142000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>162000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>178000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>163000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>105000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>171000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>147000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>97000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>151000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>161000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>171000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>157000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>99000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-3627000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>452000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>593000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>509000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>648000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>787000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>547000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>643000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>677000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>334000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-214000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-721000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>109000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-598000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>79000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>129000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>106000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>113000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>121000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>98000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-3428000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>343000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>494000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>430000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>549000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>658000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>441000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>530000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>556000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-81000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>284000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-195000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3434000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>333000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>492000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>421000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>539000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>644000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>430000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>525000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>545000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-74000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>279000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-205000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1740,14 +1801,17 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E32" s="3">
         <v>29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-28000</v>
       </c>
       <c r="M32" s="3">
         <v>-28000</v>
       </c>
       <c r="N32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-73000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-92000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>73000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3434000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>333000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>492000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>421000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>539000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>644000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>430000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>525000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>545000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-74000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>279000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-205000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3434000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>333000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>492000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>421000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>539000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>644000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>430000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>525000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>545000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-74000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>279000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-205000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1375000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1137000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1183000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1466000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1230000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1433000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1493000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1461000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1865000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1799000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1690000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1903000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1902000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2929000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1969000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1030000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1109000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>882000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>925000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1344000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1361000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1588000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3290000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3262000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4315000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5451000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6328000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5808000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7486000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7747000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8332000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8471000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8171000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7881000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8409000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8606000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8472000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8084000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9436000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8925000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8636000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9387000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3601000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4148000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4130000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4341000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4389000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4224000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4010000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4108000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4120000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4174000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4046000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4308000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4338000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4288000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4225000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1288000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1486000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1186000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1125000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1223000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1063000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1125000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1244000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1278000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1218000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1792000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1058000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14379000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16266000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15530000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16151000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16333000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15773000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15731000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16483000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16900000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18055000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18497000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19914000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21273000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21883000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23927000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1484000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1515000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1565000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1335000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1558000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1544000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1538000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1497000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1487000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1483000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1519000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1481000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1566000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1720000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1481000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7729000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8550000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9270000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9605000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11359000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11533000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11679000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11739000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11504000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11556000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11576000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12338000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12358000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12507000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12821000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16576000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16597000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23131000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23394000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33435000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33556000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33658000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34064000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34213000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34337000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34472000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34653000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34694000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34788000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34845000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4499000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5666000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6816000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7505000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7906000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7915000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7901000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6263000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6052000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6047000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5923000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5183000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4971000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5277000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4882000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44667000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48594000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56312000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57990000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70591000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70321000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70507000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70046000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70156000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71478000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71987000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73569000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>74862000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76175000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77956000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9824000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10168000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10663000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10364000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9851000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9702000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10223000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9419000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9367000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9598000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10036000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9676000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9413000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9380000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9939000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1233000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>524000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>340000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>98000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1407000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3215000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3736000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4586000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3324000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1289000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2224000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2449000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3153000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1861000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1911000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1779000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1824000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1896000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1856000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1966000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1963000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2011000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1922000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2049000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1890000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1947000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1967000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11665000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13262000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13098000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12483000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11773000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11697000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13486000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14600000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15066000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16195000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15282000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13014000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13527000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13776000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15059000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16763000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15409000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14770000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16333000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16978000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16449000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14644000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14159000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13865000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13526000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14875000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15871000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16600000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16538000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16463000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3783000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3940000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4268000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4847000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5567000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5791000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4339000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4328000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4431000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4569000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4674000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4783000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4807000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4905000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32627000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33033000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32552000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34077000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34739000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34218000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34345000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33513000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33672000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34554000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35145000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33996000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35342000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35569000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36878000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7073000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10681000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18751000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19111000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31186000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31386000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31658000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31712000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31760000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32022000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32190000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35136000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35284000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36052000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36470000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12040000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15561000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23760000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23913000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35852000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36103000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36162000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36533000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36484000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36924000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36842000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39573000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39520000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40606000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41078000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3434000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>333000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>492000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>421000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>539000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>644000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>430000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>525000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>545000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-74000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>279000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-205000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E83" s="3">
         <v>792000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>848000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>938000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>903000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>919000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>887000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>876000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>874000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>906000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>956000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>986000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>989000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1016000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E89" s="3">
         <v>784000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2252000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1745000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1108000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>326000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2331000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1827000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>987000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>568000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2251000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1898000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>858000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>656000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2013000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-407000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-494000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-413000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-404000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-413000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-621000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-565000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-520000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-454000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-625000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-598000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-503000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-381000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-654000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-547000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-203000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-934000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-644000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-230000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-315000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-895000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>282000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>221000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>473000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,13 +4849,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-692000</v>
+        <v>-694000</v>
       </c>
       <c r="E96" s="3">
         <v>-692000</v>
@@ -4631,34 +4865,34 @@
         <v>-692000</v>
       </c>
       <c r="G96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-693000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-692000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-693000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-692000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-692000</v>
       </c>
       <c r="M96" s="3">
         <v>-692000</v>
       </c>
       <c r="N96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-693000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-696000</v>
       </c>
       <c r="Q96" s="3">
         <v>-696000</v>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E100" s="3">
         <v>777000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-234000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-297000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-787000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>278000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-104000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E102" s="3">
         <v>238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-283000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>236000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-203000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-404000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>109000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-213000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-512000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5258000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5356000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7455000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8228000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8541000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8269000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7879000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8179000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8504000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7829000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8179000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7905000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7462000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6894000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7107000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4624000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4925000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6614000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7136000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7236000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6956000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7193000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7305000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7184000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6834000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7169000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6787000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6469000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6082000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6113000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E10" s="3">
         <v>431000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>841000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1092000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1159000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1033000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>923000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>986000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1199000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1119000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>995000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1010000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1118000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>993000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>812000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>994000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E12" s="3">
         <v>142000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>173000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>190000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>176000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>179000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>173000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>178000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>177000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>175000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>172000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>192000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>189000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>196000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>211000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>262000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3724000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8523000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>209000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12692000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-43000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>184000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2796000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>49000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>591000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>82000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>676000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5196000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8872000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15437000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7664000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20370000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7529000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7241000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7442000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7587000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7657000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7117000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10266000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7140000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7366000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6473000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7149000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>564000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>740000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>638000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>737000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>917000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>646000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>712000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>765000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>421000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-42000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-59000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>28000</v>
       </c>
       <c r="N20" s="3">
         <v>28000</v>
       </c>
       <c r="O20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P20" s="3">
         <v>73000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>92000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>70000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-73000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1442000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1709000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1575000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1672000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1845000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1570000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1614000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1794000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1480000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>901000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>78000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>142000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>162000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>178000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>163000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>105000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>171000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>147000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>97000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>151000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>161000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>171000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>157000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>99000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>452000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>593000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>509000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>648000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>787000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>547000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>643000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>677000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>334000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-214000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-199000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-721000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>109000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-598000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>79000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>106000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>113000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>121000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>98000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>343000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>494000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>430000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>549000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>658000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>441000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>530000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>556000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>284000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-195000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>333000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>492000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>421000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>539000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>644000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>430000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>525000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>545000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>279000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-205000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1804,14 +1865,17 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>59000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-28000</v>
       </c>
       <c r="N32" s="3">
         <v>-28000</v>
       </c>
       <c r="O32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-73000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-70000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>73000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>333000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>492000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>421000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>539000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>644000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>430000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>525000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>545000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>279000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-205000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>333000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>492000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>421000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>539000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>644000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>430000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>525000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>545000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>279000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-205000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2314,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1462000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1375000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1137000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1183000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1466000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1230000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1433000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1493000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1461000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1865000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1799000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1690000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1903000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1902000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2929000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2618000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2127000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1969000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1030000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1109000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>882000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>925000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1344000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1361000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1588000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2300000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3290000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3262000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4315000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5451000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6328000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5552000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5808000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7486000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7747000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8332000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8471000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8171000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7881000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8409000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8606000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8472000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8084000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9436000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8925000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8636000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9387000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3542000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3601000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4148000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4130000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4341000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4389000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4224000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4010000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4108000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4120000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4174000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4046000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4308000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4338000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4288000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4225000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1284000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1381000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1288000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1486000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1186000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1125000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1223000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1063000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1112000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1125000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1244000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1278000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1218000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1792000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1606000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1058000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14215000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14379000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16266000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15530000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16151000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16333000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15773000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15731000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16483000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16900000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18055000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18497000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19914000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21273000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21883000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23927000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1484000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1515000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1565000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1335000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1558000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1544000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1538000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1497000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1487000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1483000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1519000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1481000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1566000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1720000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1481000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7396000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7729000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8550000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9270000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9605000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11359000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11533000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11679000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11739000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11504000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11556000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11576000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12338000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12358000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12507000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12821000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16541000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16576000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16597000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23131000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23394000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33435000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33556000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33658000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34064000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34213000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34337000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34472000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34653000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34694000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34788000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34845000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4478000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4499000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5666000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6816000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7505000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7906000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7915000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7901000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6263000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6052000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6047000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5923000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5183000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4971000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5277000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4882000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44066000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44667000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48594000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56312000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57990000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70591000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70321000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70507000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70046000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70156000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71478000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71987000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73569000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74862000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76175000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77956000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9201000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9824000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10168000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10663000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10364000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9851000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9702000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10223000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9419000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9367000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9598000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10036000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9676000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9413000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9380000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9939000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="E58" s="3">
         <v>603000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1233000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>524000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>340000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>98000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1407000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3215000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3736000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4586000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3324000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1289000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2224000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2449000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3153000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1238000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1861000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1911000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1779000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1824000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1896000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1856000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1966000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1963000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2011000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1922000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2049000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1890000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1947000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1967000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11651000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11665000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13262000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13098000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12483000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11773000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11697000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13486000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14600000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15066000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16195000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15282000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13014000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13527000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13776000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15059000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16471000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16763000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15409000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14770000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16333000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16978000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16449000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14644000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14159000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13865000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13526000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14875000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15871000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16600000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16538000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16463000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3783000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3940000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4268000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4847000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5567000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5651000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5791000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4339000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4328000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4431000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4569000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4674000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4783000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4807000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4905000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32125000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32627000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33033000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32552000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34077000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34739000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34218000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34345000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33513000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33672000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34554000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35145000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33996000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35342000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35569000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36878000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6818000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7073000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10681000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18751000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19111000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31186000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31386000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31658000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31712000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31760000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32022000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32190000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35136000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35284000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36052000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36470000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11941000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12040000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15561000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23760000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23913000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35852000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36103000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36162000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36533000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36484000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36924000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36842000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39573000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39520000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40606000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41078000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>333000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>492000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>421000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>539000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>644000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>430000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>525000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>545000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>279000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-205000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E83" s="3">
         <v>604000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>792000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>848000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>938000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>903000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>919000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>887000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>876000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>874000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>906000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>956000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>986000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>989000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1016000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E89" s="3">
         <v>803000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>784000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2252000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1745000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1108000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>326000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2331000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1827000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>987000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>568000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2251000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1898000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>858000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>656000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2013000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-251000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-407000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-494000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-413000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-404000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-413000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-621000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-565000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-520000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-454000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-625000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-598000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-503000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-381000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-654000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-740000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-547000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-203000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-934000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-644000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-230000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-315000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-895000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>282000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>221000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>473000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,16 +5083,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-692000</v>
       </c>
       <c r="F96" s="3">
         <v>-692000</v>
@@ -4868,34 +5102,34 @@
         <v>-692000</v>
       </c>
       <c r="H96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-693000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-692000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-693000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-692000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-692000</v>
       </c>
       <c r="N96" s="3">
         <v>-692000</v>
       </c>
       <c r="O96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-693000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-696000</v>
       </c>
       <c r="R96" s="3">
         <v>-696000</v>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-167000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>777000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-234000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-297000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-787000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>278000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-104000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="E102" s="3">
         <v>87000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>238000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-283000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>236000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-203000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-404000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>109000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-213000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-512000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5532000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5258000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5356000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7455000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8228000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8541000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8269000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7879000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8179000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8504000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8303000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7829000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8179000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7905000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7462000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6894000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7107000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4828000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4624000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4925000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6614000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7136000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7236000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6956000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7193000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7305000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7184000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6834000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7169000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6787000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6469000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6082000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6113000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E10" s="3">
         <v>634000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>431000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>841000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1092000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1159000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1033000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>923000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>986000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1199000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1119000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>995000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1010000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>993000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>812000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>994000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E12" s="3">
         <v>137000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>142000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>173000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>190000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>176000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>179000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>173000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>178000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>177000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>175000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>172000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>192000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>189000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>196000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>211000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>262000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E14" s="3">
         <v>350000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3724000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8523000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>209000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12692000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-43000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>184000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2796000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>49000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>591000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>82000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>676000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4986000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5196000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8872000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15437000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7664000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20370000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7529000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7241000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7442000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7587000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7657000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7117000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10266000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7140000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7366000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6473000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7149000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E18" s="3">
         <v>62000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>564000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>740000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>638000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>737000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>917000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>646000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>712000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>765000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>421000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-42000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E20" s="3">
         <v>22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-59000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>28000</v>
       </c>
       <c r="O20" s="3">
         <v>28000</v>
       </c>
       <c r="P20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>73000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>92000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>70000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-73000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E21" s="3">
         <v>671000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1442000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1709000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1575000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1672000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1845000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1570000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1614000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1794000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1174000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1480000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>901000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E22" s="3">
         <v>138000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>78000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>142000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>162000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>178000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>163000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>171000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>97000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>151000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>161000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>171000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>157000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>99000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>452000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>593000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>509000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>648000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>787000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>547000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>643000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>677000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>334000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-214000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-199000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-721000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>109000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-598000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>79000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>129000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>106000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>113000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>121000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>98000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>343000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>494000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>430000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>549000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>658000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>441000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>530000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>556000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-81000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>284000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-195000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-82000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>333000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>492000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>421000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>539000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>644000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>430000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>525000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>545000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-74000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>279000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-205000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1868,14 +1928,17 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>59000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-28000</v>
       </c>
       <c r="O32" s="3">
         <v>-28000</v>
       </c>
       <c r="P32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-92000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-70000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>73000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>333000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>492000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>421000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>539000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>644000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>430000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>525000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>545000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-74000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>279000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-205000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>333000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>492000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>421000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>539000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>644000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>430000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>525000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>545000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-74000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>279000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-205000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,512 +2400,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1219000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1462000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1375000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1137000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1183000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1466000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1230000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1433000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1493000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1461000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1865000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1799000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1690000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1903000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1902000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2929000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2162000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2618000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2127000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1969000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1030000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1109000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>882000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>925000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1344000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1361000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1588000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2300000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3290000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3262000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4315000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5451000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6328000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5247000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5552000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5808000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7486000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7747000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8332000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8471000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8171000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7881000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8409000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8606000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8472000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8084000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9436000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8925000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8636000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9387000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3354000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3542000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3601000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4148000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4130000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4341000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4389000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4224000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4010000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4108000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4120000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4174000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4046000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4308000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4338000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4288000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4225000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1284000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1381000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1288000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1486000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1186000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1125000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1223000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1063000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1125000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1244000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1278000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1792000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1606000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1058000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12919000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14215000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14379000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16266000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15530000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16151000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16333000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15773000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15731000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16483000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16900000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18055000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18497000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19914000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21273000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21883000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23927000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1436000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1484000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1515000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1565000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1335000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1558000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1544000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1538000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1497000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1487000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1483000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1519000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1566000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1720000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1481000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6826000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7396000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7729000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8550000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9270000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9605000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11359000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11533000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11679000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11739000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11504000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11556000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11576000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12338000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12358000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12507000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12821000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16435000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16541000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16576000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16597000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23131000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23394000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33435000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33556000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33658000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34064000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34213000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34337000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34472000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34653000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34694000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34788000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34845000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4193000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4478000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4499000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5666000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6816000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7505000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7906000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7915000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7901000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6263000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6052000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6047000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5923000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5183000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4971000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5277000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4882000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42434000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44066000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44667000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48594000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56312000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57990000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70591000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70321000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70507000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70046000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70156000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71478000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71987000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73569000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74862000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76175000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77956000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8442000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9201000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9824000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10168000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10663000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10364000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9851000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9702000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10223000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9419000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9367000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9598000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10036000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9676000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9413000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9380000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9939000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1292000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>603000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1233000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>524000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>340000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>98000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>99000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1407000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3215000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3736000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4586000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3324000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1289000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2224000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2449000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3153000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1158000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1238000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1861000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1911000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1779000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1824000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1896000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1856000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1966000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1963000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2011000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1922000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2049000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1890000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1947000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1967000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10491000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11651000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11665000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13262000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13098000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12483000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11773000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11697000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13486000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14600000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15066000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16195000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15282000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13014000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13527000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13776000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15059000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16036000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16471000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16763000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15409000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14770000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16333000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16978000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16449000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14644000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14159000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13865000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13526000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14875000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15871000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16600000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16538000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16463000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3418000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3575000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3783000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3940000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4268000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4847000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5567000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5651000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5791000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4339000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4328000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4431000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4569000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4674000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4783000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4807000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4905000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30363000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32125000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32627000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33033000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32552000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34077000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34739000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34218000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34345000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33513000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33672000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34554000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35145000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33996000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35342000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35569000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36878000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7018000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6818000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7073000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10681000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18751000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19111000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31186000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31386000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31658000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31712000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31760000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32022000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32190000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35136000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35284000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36052000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36470000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12071000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11941000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12040000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15561000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23760000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23913000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35852000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36103000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36162000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36533000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36484000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36924000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36842000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39573000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39520000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40606000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41078000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>333000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>492000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>421000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>539000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>644000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>430000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>525000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>545000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-74000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>279000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-205000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E83" s="3">
         <v>587000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>604000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>792000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>848000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>938000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>903000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>919000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>887000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>876000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>874000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>906000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>956000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>986000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>989000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1016000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E89" s="3">
         <v>479000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>803000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>784000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2252000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1745000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1108000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>326000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2331000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1827000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>987000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>568000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2251000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1898000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>858000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>656000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2013000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-251000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-407000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-494000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-413000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-404000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-413000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-621000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-565000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-520000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-454000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-625000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-598000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-503000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-381000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-654000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-740000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-547000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-203000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-934000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-644000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-230000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-315000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-895000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-112000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>282000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>221000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>473000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5093,10 +5326,10 @@
         <v>-174000</v>
       </c>
       <c r="E96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-692000</v>
       </c>
       <c r="G96" s="3">
         <v>-692000</v>
@@ -5105,34 +5338,34 @@
         <v>-692000</v>
       </c>
       <c r="I96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-693000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-692000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-693000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-692000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-692000</v>
       </c>
       <c r="O96" s="3">
         <v>-692000</v>
       </c>
       <c r="P96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-693000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-696000</v>
       </c>
       <c r="S96" s="3">
         <v>-696000</v>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1504000</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-167000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>777000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-234000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-297000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-787000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>278000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-15000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-104000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-243000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>238000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-283000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>236000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-203000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-404000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>66000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>109000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-213000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-512000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5223000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5532000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5258000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5356000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7455000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8228000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8541000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8269000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7879000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8179000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8504000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8303000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7829000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8179000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7905000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7462000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6894000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7107000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4504000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4828000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4624000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4925000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6614000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7136000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7236000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6956000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7193000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7305000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7184000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6834000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7169000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6787000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6469000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6082000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6113000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E10" s="3">
         <v>704000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>634000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>431000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>841000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1092000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1159000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1033000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>923000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>986000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1199000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1119000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>995000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1118000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>993000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>812000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>994000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E12" s="3">
         <v>128000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>137000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>142000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>173000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>190000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>176000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>179000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>173000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>178000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>177000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>175000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>172000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>192000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>189000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>196000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>211000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>262000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-42000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>350000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3724000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8523000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>209000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12692000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-43000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>184000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2796000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>49000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>591000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>82000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>676000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4720000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4986000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5196000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8872000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15437000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7664000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20370000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7529000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7241000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7442000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7587000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7657000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7117000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10266000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7140000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7366000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6473000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7149000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E18" s="3">
         <v>546000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>564000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>740000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>638000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>737000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>917000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>646000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>712000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>765000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>421000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-42000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="3">
         <v>69000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>28000</v>
       </c>
       <c r="P20" s="3">
         <v>28000</v>
       </c>
       <c r="Q20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R20" s="3">
         <v>73000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>92000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>70000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-73000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1198000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>671000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1442000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1709000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1575000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1672000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1845000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1570000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1614000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1794000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1174000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1480000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>901000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E22" s="3">
         <v>144000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>138000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>78000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>142000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>162000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>178000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>163000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>171000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>147000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>97000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>151000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>161000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>171000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>157000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>99000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E23" s="3">
         <v>471000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>452000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>593000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>509000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>648000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>787000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>547000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>643000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>677000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>334000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-214000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E24" s="3">
         <v>89000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-199000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-721000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>109000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-598000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>129000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>106000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>113000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>121000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>98000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>50000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E26" s="3">
         <v>382000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>343000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>494000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>430000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>549000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>658000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>441000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>530000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>556000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-81000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>284000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-195000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E27" s="3">
         <v>374000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-82000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>333000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>492000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>539000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>644000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>430000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>525000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>545000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-74000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>279000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-205000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1919,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1931,14 +1992,17 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-69000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-28000</v>
       </c>
       <c r="P32" s="3">
         <v>-28000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-73000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-92000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-70000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>73000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E33" s="3">
         <v>374000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>333000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>492000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>539000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>644000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>430000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>525000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>545000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-74000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>279000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-205000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E35" s="3">
         <v>374000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>333000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>492000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>539000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>644000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>430000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>525000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>545000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-74000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>279000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-205000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="E41" s="3">
         <v>844000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1219000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1462000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1375000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1137000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1183000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1466000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1230000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1433000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1493000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1461000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1865000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1799000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1690000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1903000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1902000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2929000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2162000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2618000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2127000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1969000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1030000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1109000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>882000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>925000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1344000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1361000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1588000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2300000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3290000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3262000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4315000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5451000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6328000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5269000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5247000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5552000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5808000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7486000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7747000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8332000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8471000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8171000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7881000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8409000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8606000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8472000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8084000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9436000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8925000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8636000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9387000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3303000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3354000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3542000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3601000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4148000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4130000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4341000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4389000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4224000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4010000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4108000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4120000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4174000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4046000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4308000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4338000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4288000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4225000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1312000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1284000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1381000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1288000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1486000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1186000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1125000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1223000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1063000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1125000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1244000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1278000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1218000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1792000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1606000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1058000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12807000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12919000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14215000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14379000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16266000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15530000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16151000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16333000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15773000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15731000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16483000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16900000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18055000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18497000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19914000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21273000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21883000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23927000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2061000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1436000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1484000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1515000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1565000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1335000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1558000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1544000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1538000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1497000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1487000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1483000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1481000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1566000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1720000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1481000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6620000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6826000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7396000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7729000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8550000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9270000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9605000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11359000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11533000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11679000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11739000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11504000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11556000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11576000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12338000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12358000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12507000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12821000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16375000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16435000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16541000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16576000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16597000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23131000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23394000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33435000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33556000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33658000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34064000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34213000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34337000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34472000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34653000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34694000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34788000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34845000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4193000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4478000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4499000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5666000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6816000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7505000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7906000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7915000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7901000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6263000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6052000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6047000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5923000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5183000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4971000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5277000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4882000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42036000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42434000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44066000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44667000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48594000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56312000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57990000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70591000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70321000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70507000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70046000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70156000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71478000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71987000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73569000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74862000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76175000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77956000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7956000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8442000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9201000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9824000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10168000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10663000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10364000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9851000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9702000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10223000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9419000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9367000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9598000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10036000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9676000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9413000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9380000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9939000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E58" s="3">
         <v>850000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1292000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>603000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1233000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>524000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>340000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>98000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>99000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1407000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3215000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3736000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4586000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3324000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1289000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2224000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2449000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3153000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1199000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1158000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1238000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1861000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1911000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1779000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1824000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1896000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1856000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1966000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1963000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2011000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1922000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2049000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1890000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1947000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1967000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9873000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10491000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11651000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11665000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13262000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13098000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12483000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11773000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11697000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13486000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14600000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15066000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16195000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15282000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13014000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13527000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13776000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15059000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15834000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16036000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16471000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16763000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15409000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14770000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16333000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16978000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16449000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14644000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14159000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13865000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13526000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14875000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15871000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16600000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16538000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16463000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3418000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3575000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3783000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3940000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4268000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4847000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5567000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5651000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5791000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4339000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4328000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4431000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4569000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4674000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4783000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4807000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4905000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29493000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30363000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32125000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32627000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33033000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32552000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34077000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34739000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34218000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34345000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33513000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33672000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34554000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35145000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33996000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35342000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35569000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36878000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7142000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7018000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6818000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7073000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10681000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18751000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19111000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31186000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31386000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31658000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31712000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31760000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32022000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32190000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35136000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35284000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36052000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36470000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12543000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12071000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11941000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12040000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15561000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23760000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23913000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35852000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36103000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36162000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36533000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36484000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36924000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36842000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39573000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39520000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40606000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41078000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E81" s="3">
         <v>374000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>333000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>492000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>539000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>644000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>430000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>525000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>545000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-74000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>279000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-205000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E83" s="3">
         <v>583000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>587000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>604000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>792000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>848000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>938000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>903000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>919000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>887000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>876000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>874000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>906000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>956000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>986000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>989000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1016000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E89" s="3">
         <v>878000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>479000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>803000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>784000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2252000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1745000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1108000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>326000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1827000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>987000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>568000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2251000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1898000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>858000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>656000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2013000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-258000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-251000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-407000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-494000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-413000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-404000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-413000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-621000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-565000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-520000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-454000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-625000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-598000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-503000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-381000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-654000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E94" s="3">
         <v>246000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-740000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-547000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-203000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-934000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-644000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-230000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-315000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-895000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-112000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>282000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>221000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>473000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,10 +5563,10 @@
         <v>-174000</v>
       </c>
       <c r="F96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-692000</v>
       </c>
       <c r="H96" s="3">
         <v>-692000</v>
@@ -5341,34 +5575,34 @@
         <v>-692000</v>
       </c>
       <c r="J96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-693000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-692000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-693000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-692000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-692000</v>
       </c>
       <c r="P96" s="3">
         <v>-692000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-693000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-696000</v>
       </c>
       <c r="T96" s="3">
         <v>-696000</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-167000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>777000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-234000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-297000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-787000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>278000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-104000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-375000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-243000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>87000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>238000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-283000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>236000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-203000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-404000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>66000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>109000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-213000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-512000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5634000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5223000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5532000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5258000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5356000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7455000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8228000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8541000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8269000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7879000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8179000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8504000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8303000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7829000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8179000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7905000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7462000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6894000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7107000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4768000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4504000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4828000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4624000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4925000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6614000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7136000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7236000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6956000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7193000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7305000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7184000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6834000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7169000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6787000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6469000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6082000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6113000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E10" s="3">
         <v>719000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>704000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>634000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>431000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>841000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1092000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1159000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1033000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>923000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>986000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1199000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1119000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>995000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1010000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1118000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>993000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>812000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>994000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E12" s="3">
         <v>135000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>128000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>137000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>142000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>173000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>190000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>176000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>179000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>173000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>178000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>177000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>175000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>172000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>192000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>189000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>196000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>211000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>262000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1097,61 +1117,64 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-42000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>350000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3724000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8523000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>209000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12692000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-43000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>184000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2796000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>49000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>591000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>82000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>676000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4972000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4720000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4986000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5196000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8872000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15437000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7664000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20370000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7529000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7241000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7442000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7587000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7657000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7117000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10266000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7140000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7366000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6473000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7149000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E18" s="3">
         <v>503000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>546000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>564000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>740000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>638000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>737000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>917000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>646000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>712000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>765000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>421000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-42000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>69000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-59000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>48000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>28000</v>
       </c>
       <c r="Q20" s="3">
         <v>28000</v>
       </c>
       <c r="R20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S20" s="3">
         <v>73000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>92000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>70000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-73000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1054000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1198000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>671000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1442000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1709000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1575000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1672000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1845000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1570000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1614000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1794000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1174000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1480000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>901000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1514,185 +1554,194 @@
         <v>136000</v>
       </c>
       <c r="E22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F22" s="3">
         <v>144000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>138000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>78000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>142000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>162000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>178000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>163000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>105000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>171000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>147000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>97000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>151000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>161000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>171000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>157000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>99000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E23" s="3">
         <v>386000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>471000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>452000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>593000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>509000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>648000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>787000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>547000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>643000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>677000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>334000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-214000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E24" s="3">
         <v>74000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>89000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-199000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-721000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>109000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-598000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>79000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>129000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>106000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>113000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>121000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>98000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>50000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E26" s="3">
         <v>312000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>382000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>343000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>494000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>430000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>549000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>658000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>441000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>530000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>556000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-81000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>284000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-195000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E27" s="3">
         <v>299000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>374000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-82000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>333000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>492000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>421000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>539000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>644000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>430000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>525000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>545000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-74000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>279000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-205000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1965,8 +2026,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1995,14 +2056,17 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-69000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>59000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-28000</v>
       </c>
       <c r="Q32" s="3">
         <v>-28000</v>
       </c>
       <c r="R32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-73000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-92000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-70000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>73000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E33" s="3">
         <v>299000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>374000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-82000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>333000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>492000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>421000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>539000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>644000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>430000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>525000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>545000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-74000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>279000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-205000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E35" s="3">
         <v>299000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>374000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-82000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>333000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>492000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>421000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>539000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>644000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>430000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>525000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>545000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-74000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>279000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-205000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1268000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>844000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1219000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1462000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1375000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1137000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1183000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1466000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1230000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1433000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1493000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1461000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1865000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1799000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1690000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1903000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1902000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2929000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1642000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2162000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2618000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2127000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1969000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1030000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1109000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>882000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>925000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1344000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1361000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1588000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2300000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3290000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3262000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4315000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5451000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6328000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5347000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5269000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5247000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5552000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5808000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7486000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7747000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8332000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8471000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8171000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7881000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8409000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8606000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8472000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8084000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9436000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8925000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8636000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9387000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3267000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3303000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3354000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3542000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3601000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4148000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4130000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4341000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4389000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4224000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4010000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4108000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4120000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4174000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4046000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4308000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4338000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4288000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4225000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>781000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1325000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1312000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1284000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1381000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1288000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1486000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1186000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1125000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1223000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1063000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1112000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1125000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1244000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1278000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1218000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1792000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1606000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1058000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12077000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12807000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12919000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14215000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14379000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16266000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15530000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16151000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16333000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15773000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15731000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16483000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16900000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18055000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18497000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19914000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21273000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21883000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23927000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2090000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2061000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1436000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1484000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1515000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1565000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1335000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1558000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1544000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1538000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1497000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1487000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1519000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1481000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1566000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1720000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1481000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6473000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6620000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6826000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7396000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7729000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8550000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9270000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9605000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11359000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11533000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11679000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11739000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11504000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11556000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11576000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12338000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12358000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12507000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12821000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16298000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16375000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16435000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16541000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16576000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16597000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23131000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23394000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33435000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33556000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33658000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34064000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34213000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34337000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34472000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34653000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34694000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34788000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34845000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4025000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4144000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4193000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4478000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4499000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5666000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6816000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7505000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7906000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7915000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7901000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6263000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6052000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6047000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5923000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5183000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4971000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5277000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4882000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40908000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42036000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42434000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44066000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44667000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48594000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56312000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57990000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70591000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70321000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70507000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70046000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70156000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71478000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71987000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73569000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74862000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76175000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77956000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7635000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7956000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8442000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9201000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9824000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10168000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10663000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10364000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9851000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9702000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10223000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9419000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9367000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9598000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10036000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9676000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9413000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9380000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9939000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E58" s="3">
         <v>749000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>850000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1292000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>603000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1233000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>524000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>340000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>98000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>99000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1407000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3215000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3736000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4586000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3324000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1289000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2224000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2449000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3153000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1168000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1199000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1158000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1238000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1861000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1911000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1779000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1824000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1896000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1856000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1966000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1963000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1922000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2049000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1890000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1947000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1967000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8784000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9873000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10491000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11651000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11665000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13262000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13098000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12483000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11773000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11697000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13486000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14600000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15066000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16195000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15282000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13014000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13527000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13776000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15059000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15687000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15834000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16036000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16471000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16763000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15409000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14770000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16333000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16978000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16449000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14644000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14159000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13865000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13526000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14875000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15871000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16600000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16538000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16463000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3378000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3357000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3418000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3575000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3783000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3940000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4268000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4847000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5567000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5651000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5791000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4339000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4328000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4431000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4569000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4674000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4783000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4807000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4905000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28146000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29493000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30363000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32125000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32627000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33033000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32552000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34077000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34739000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34218000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34345000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33513000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33672000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34554000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35145000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33996000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35342000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35569000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36878000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7399000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7018000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6818000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7073000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10681000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18751000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19111000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31186000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31386000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31658000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31712000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31760000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32022000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32190000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35136000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35284000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36052000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36470000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12762000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12543000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12071000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11941000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12040000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15561000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23760000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23913000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35852000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36103000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36162000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36533000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36484000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36924000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36842000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39573000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39520000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40606000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41078000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E81" s="3">
         <v>299000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>374000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-82000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>333000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>492000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>421000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>539000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>644000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>430000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>525000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>545000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-74000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>279000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-205000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E83" s="3">
         <v>532000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>583000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>587000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>604000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>792000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>848000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>938000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>903000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>919000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>887000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>876000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>874000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>906000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>956000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>986000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>989000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1016000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E89" s="3">
         <v>429000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>878000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>479000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>803000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>784000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2252000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1745000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1108000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>326000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1827000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>987000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>568000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2251000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1898000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>858000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>656000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2013000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-178000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-258000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-251000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-407000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-494000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-413000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-404000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-413000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-621000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-565000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-520000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-454000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-625000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-598000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-503000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-381000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-654000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>211000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>246000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-740000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-547000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-203000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-934000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-644000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-230000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-315000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-895000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-112000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>282000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>221000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>473000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,13 +5784,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="E96" s="3">
         <v>-174000</v>
@@ -5566,10 +5800,10 @@
         <v>-174000</v>
       </c>
       <c r="G96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-692000</v>
       </c>
       <c r="I96" s="3">
         <v>-692000</v>
@@ -5578,34 +5812,34 @@
         <v>-692000</v>
       </c>
       <c r="K96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-693000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-692000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-693000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-692000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-692000</v>
       </c>
       <c r="Q96" s="3">
         <v>-692000</v>
       </c>
       <c r="R96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-693000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-696000</v>
       </c>
       <c r="U96" s="3">
         <v>-696000</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1070000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-212000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-167000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>777000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-297000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-787000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>278000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-15000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-104000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E102" s="3">
         <v>424000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-375000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-243000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>87000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>238000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-283000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>236000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-203000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-404000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>66000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>109000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-213000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-512000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5847000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5634000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5223000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5532000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5258000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5356000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7455000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8228000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8541000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8269000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7879000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8179000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8504000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8303000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7829000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8179000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7905000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7462000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6894000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7107000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4862000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4768000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4504000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4828000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4624000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4925000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6614000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7136000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7382000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7236000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6956000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7193000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7305000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7184000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6834000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7169000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6787000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6469000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6082000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6113000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>985000</v>
+      </c>
+      <c r="E10" s="3">
         <v>866000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>719000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>704000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>634000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>431000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>841000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1092000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1159000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1033000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>923000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>986000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1199000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>995000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1010000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1118000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>993000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>812000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>994000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="3">
         <v>134000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>135000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>128000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>137000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>142000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>173000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>190000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>176000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>179000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>173000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>178000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>177000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>175000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>172000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>192000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>189000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>196000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>211000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>262000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,61 +1140,64 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-42000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>350000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3724000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8523000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>209000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12692000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-43000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>184000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2796000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>49000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>591000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>82000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>676000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5082000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4972000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4720000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4986000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5196000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8872000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15437000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7664000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20370000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7529000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7241000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7442000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7587000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7657000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7117000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10266000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7140000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7366000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6473000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7149000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E18" s="3">
         <v>662000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>503000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>546000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>564000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>740000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>638000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>737000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>917000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>646000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>712000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>765000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>421000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-42000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,333 +1448,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>69000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-59000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>28000</v>
       </c>
       <c r="R20" s="3">
         <v>28000</v>
       </c>
       <c r="S20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T20" s="3">
         <v>73000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>92000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>70000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-73000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1204000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1054000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1198000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>671000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1442000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1709000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1575000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1672000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1845000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1570000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1614000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1794000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1174000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1480000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>901000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>136000</v>
+        <v>130000</v>
       </c>
       <c r="E22" s="3">
         <v>136000</v>
       </c>
       <c r="F22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G22" s="3">
         <v>144000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>138000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>78000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>142000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>162000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>178000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>163000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>105000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>171000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>147000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>97000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>151000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>161000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>171000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>157000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>99000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E23" s="3">
         <v>542000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>386000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>471000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>452000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>593000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>509000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>648000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>787000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>547000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>643000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>677000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>334000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-214000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E24" s="3">
         <v>99000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>74000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>89000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-199000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-721000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-598000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>79000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>99000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>129000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>106000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>113000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>121000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>98000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E26" s="3">
         <v>443000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>312000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>382000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>343000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>494000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>430000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>549000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>658000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>441000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>530000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>556000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-81000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>284000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-195000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E27" s="3">
         <v>431000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>299000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>374000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>333000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>492000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>421000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>539000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>644000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>430000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>525000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>545000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-74000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>279000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-205000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2029,8 +2090,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2059,14 +2120,17 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-69000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>59000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-28000</v>
       </c>
       <c r="R32" s="3">
         <v>-28000</v>
       </c>
       <c r="S32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-73000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-92000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-70000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>73000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E33" s="3">
         <v>431000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>299000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>374000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>333000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>492000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>421000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>539000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>644000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>430000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>525000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>545000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-74000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>279000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-205000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E35" s="3">
         <v>431000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>299000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>374000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>333000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>492000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>421000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>539000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>644000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>430000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>525000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>545000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-74000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>279000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-205000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2661,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1569000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1439000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1268000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>844000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1219000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1462000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1375000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1137000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1183000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1466000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1230000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1433000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1493000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1461000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1865000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1799000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1690000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1903000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1902000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2929000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1243000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1642000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2162000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2618000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2127000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1969000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1030000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1109000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>882000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>925000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1344000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1361000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1588000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2300000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3290000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3262000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4315000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5451000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6328000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5349000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5347000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5269000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5247000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5552000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5808000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7486000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7747000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8332000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8471000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8171000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7881000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8409000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8606000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8472000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8084000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9436000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8925000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8636000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9387000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3296000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3267000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3303000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3354000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3542000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3601000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4148000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4130000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4341000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4389000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4224000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4010000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4108000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4120000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4174000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4046000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4308000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4338000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4288000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4225000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E45" s="3">
         <v>781000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1325000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1312000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1284000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1381000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1288000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1486000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1186000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1125000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1223000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1063000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1112000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1244000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1278000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1218000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1792000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1606000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1058000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12387000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12077000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12807000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12919000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14215000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14379000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16266000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15530000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16151000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16333000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15773000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15731000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16483000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16900000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18055000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18497000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19914000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21273000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21883000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23927000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2110000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2035000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2090000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2061000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1436000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1484000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1515000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1565000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1335000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1558000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1544000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1538000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1497000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1487000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1483000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1519000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1481000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1566000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1720000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1481000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6375000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6473000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6620000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6826000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7396000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7729000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8550000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9270000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9605000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11359000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11533000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11679000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11739000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11504000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11556000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11576000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12338000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12358000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12507000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12821000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16255000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16298000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16375000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16435000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16541000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16576000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16597000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23131000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23394000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33435000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33556000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33658000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34064000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34213000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34337000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34472000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34653000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34694000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34788000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34845000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3911000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4025000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4144000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4193000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4478000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4499000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5666000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6816000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7505000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7906000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7915000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7901000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6263000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6052000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6047000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5923000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5183000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4971000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5277000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4882000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41038000</v>
+      </c>
+      <c r="E54" s="3">
         <v>40908000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42036000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42434000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44066000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44667000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48594000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56312000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57990000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70591000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70321000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70507000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70046000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70156000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71478000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71987000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73569000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74862000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76175000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77956000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7615000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7635000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7956000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8442000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9201000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9824000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10168000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10663000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10364000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9851000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9702000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10223000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9419000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9367000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9598000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10036000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9676000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9413000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9380000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9939000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E58" s="3">
         <v>36000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>749000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>850000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1292000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>603000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1233000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>524000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>98000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>99000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1407000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3215000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3736000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4586000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3324000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1289000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2224000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2449000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3153000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1168000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1199000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1158000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1238000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1861000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1911000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1779000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1824000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1896000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1856000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1966000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1963000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2011000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1922000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2049000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1890000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1947000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1967000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9735000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8784000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9873000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10491000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11651000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11665000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13262000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13098000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12483000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11773000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11697000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13486000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14600000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15066000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16195000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15282000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13014000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13527000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13776000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15059000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14370000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15687000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15834000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16036000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16471000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16763000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15409000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14770000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16333000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16978000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16449000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14644000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14159000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13865000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13526000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14875000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15871000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16600000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16538000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16463000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3268000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3378000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3357000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3418000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3575000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3783000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3940000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4268000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4847000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5567000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5651000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5791000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4339000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4328000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4431000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4569000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4674000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4783000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4807000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4905000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27676000</v>
+      </c>
+      <c r="E66" s="3">
         <v>28146000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29493000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30363000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32125000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32627000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33033000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32552000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34077000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34739000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34218000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34345000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33513000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33672000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34554000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35145000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33996000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35342000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35569000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36878000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7775000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7399000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7142000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7018000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6818000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7073000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10681000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18751000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19111000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31186000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31386000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31658000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31712000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31760000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32022000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32190000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35136000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35284000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36052000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36470000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13362000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12762000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12543000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12071000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11941000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12040000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15561000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23760000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23913000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35852000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36103000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36162000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36533000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36484000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36924000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36842000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39573000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39520000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40606000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41078000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E81" s="3">
         <v>431000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>299000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>374000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>333000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>492000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>421000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>539000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>644000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>430000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>525000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>545000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-74000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>279000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-205000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E83" s="3">
         <v>526000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>532000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>583000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>587000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>604000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>792000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>848000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>938000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>903000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>919000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>887000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>876000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>874000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>906000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>956000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>986000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>989000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1016000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1220000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>429000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>878000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>479000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>803000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>784000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2252000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1745000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1108000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>326000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1827000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>987000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>568000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2251000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1898000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>858000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>656000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2013000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-243000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-178000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-258000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-251000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-407000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-494000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-413000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-404000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-413000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-621000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-565000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-520000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-454000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-625000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-598000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-503000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-381000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-654000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-619000</v>
+      </c>
+      <c r="E94" s="3">
         <v>15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>211000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>246000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-740000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-547000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-203000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-934000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-644000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-230000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-315000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-895000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>282000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>221000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>473000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-55000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5794,7 +6028,7 @@
         <v>-175000</v>
       </c>
       <c r="E96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="F96" s="3">
         <v>-174000</v>
@@ -5803,10 +6037,10 @@
         <v>-174000</v>
       </c>
       <c r="H96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-692000</v>
       </c>
       <c r="J96" s="3">
         <v>-692000</v>
@@ -5815,34 +6049,34 @@
         <v>-692000</v>
       </c>
       <c r="L96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-693000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-692000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-693000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-692000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-692000</v>
       </c>
       <c r="R96" s="3">
         <v>-692000</v>
       </c>
       <c r="S96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-693000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-696000</v>
       </c>
       <c r="V96" s="3">
         <v>-696000</v>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-212000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-167000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>777000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-234000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-297000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-787000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>278000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-104000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E102" s="3">
         <v>171000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>424000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-375000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-243000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>87000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>238000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-283000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>236000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-203000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-404000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>66000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>109000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-213000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-512000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6225000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5847000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5634000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5223000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5532000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5258000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5356000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7455000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8228000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8541000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8269000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7879000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8179000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8504000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8303000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7829000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8179000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7905000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7462000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6894000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7107000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5136000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4862000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4768000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4504000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4828000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4624000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4925000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6614000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7136000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7382000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7236000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6956000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7193000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7305000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7184000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6834000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7169000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6787000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6469000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6082000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6113000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E10" s="3">
         <v>985000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>866000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>719000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>704000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>634000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>431000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>841000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1092000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1159000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1033000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>923000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>986000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1199000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1119000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>995000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1010000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1118000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>993000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>812000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>994000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E12" s="3">
         <v>140000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>134000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>135000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>128000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>137000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>142000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>173000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>190000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>176000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>179000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>173000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>178000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>177000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>175000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>172000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>192000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>189000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>196000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>211000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>262000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,61 +1162,64 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-42000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>350000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3724000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8523000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>209000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12692000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-43000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>184000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2796000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>49000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>591000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>82000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>676000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5389000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5082000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4972000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4720000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4986000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5196000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8872000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15437000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7664000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20370000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7529000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7241000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7442000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7587000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7657000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7117000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10266000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7140000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7366000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6473000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7149000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E18" s="3">
         <v>765000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>662000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>503000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>546000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>564000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>740000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>638000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>737000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>917000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>646000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>712000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>765000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>96000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>421000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-42000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E20" s="3">
         <v>56000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>69000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-59000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>48000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>28000</v>
       </c>
       <c r="S20" s="3">
         <v>28000</v>
       </c>
       <c r="T20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U20" s="3">
         <v>73000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>92000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>70000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-73000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1351000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1204000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1054000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1198000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>671000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1442000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1709000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1575000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1672000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1845000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1570000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1614000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1794000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1174000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1480000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>901000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E22" s="3">
         <v>130000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>136000</v>
       </c>
       <c r="F22" s="3">
         <v>136000</v>
       </c>
       <c r="G22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="H22" s="3">
         <v>144000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>138000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>78000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>142000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>162000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>178000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>163000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>105000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>171000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>147000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>97000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>151000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>161000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>171000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>157000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>99000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E23" s="3">
         <v>691000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>542000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>386000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>471000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>452000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>593000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>509000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>648000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>787000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>547000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>643000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>677000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>334000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-214000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E24" s="3">
         <v>129000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>99000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>74000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>89000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-199000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-721000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-598000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>79000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>99000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>129000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>106000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>113000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>121000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>98000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>50000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-19000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E26" s="3">
         <v>562000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>443000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>312000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>382000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-73000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>343000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>494000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>430000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>549000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>658000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>441000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>530000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>556000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-81000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>284000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-195000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E27" s="3">
         <v>550000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>431000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>299000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>374000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-82000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>492000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>421000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>539000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>644000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>430000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>525000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>545000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-74000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>279000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-205000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2093,8 +2153,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2111,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2123,14 +2183,17 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-56000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-69000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>59000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-28000</v>
       </c>
       <c r="S32" s="3">
         <v>-28000</v>
       </c>
       <c r="T32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-73000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-92000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-70000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>73000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E33" s="3">
         <v>550000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>431000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>299000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>374000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-82000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>333000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>492000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>421000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>539000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>644000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>430000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>525000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>545000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-74000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>279000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-205000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E35" s="3">
         <v>550000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>431000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>299000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>374000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-82000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>333000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>492000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>421000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>539000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>644000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>430000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>525000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>545000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-74000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>279000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-205000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,620 +2747,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1569000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1439000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1268000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>844000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1219000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1462000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1375000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1137000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1183000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1466000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1230000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1433000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1493000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1461000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1865000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1799000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1690000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1903000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1902000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2929000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1373000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1243000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1642000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2162000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2618000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2127000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1969000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1030000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1109000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>882000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>925000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1344000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1588000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2300000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3290000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3262000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4315000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5451000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6328000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5315000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5349000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5347000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5269000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5247000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5552000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5808000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7486000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7747000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8332000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8471000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8171000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7881000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8409000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8606000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8472000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8084000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9436000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8925000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8636000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9387000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3272000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3296000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3267000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3303000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3354000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3542000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3601000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4148000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4130000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4341000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4389000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4224000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4010000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4108000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4120000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4174000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4046000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4308000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4338000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4288000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4225000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E45" s="3">
         <v>800000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>781000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1325000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1312000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1284000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1381000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1288000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1486000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1186000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1125000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1223000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1063000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1125000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1244000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1278000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1218000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1792000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1606000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1058000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12654000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12387000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12077000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12807000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12919000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14215000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14379000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16266000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15530000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16151000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16333000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15773000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15731000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16483000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16900000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18055000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18497000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19914000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21273000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21883000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>23927000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2044000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2110000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2035000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2090000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2061000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1436000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1484000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1515000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1565000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1335000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1558000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1544000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1538000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1497000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1487000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1483000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1519000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1481000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1566000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1720000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1481000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6429000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6375000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6473000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6620000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6826000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7396000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7729000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8550000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9270000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9605000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11359000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11533000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11679000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11739000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11504000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11556000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11576000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12338000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12358000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12507000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12821000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16201000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16255000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16298000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16375000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16435000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16541000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16576000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16597000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23131000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23394000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33435000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33556000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33658000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34064000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34213000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34337000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34472000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34653000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34694000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34788000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34845000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4183000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3911000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4025000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4144000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4193000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4478000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4499000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5666000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6816000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7505000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7906000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7915000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7901000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6263000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6052000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6047000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5923000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5183000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4971000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5277000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4882000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41511000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41038000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40908000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42036000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42434000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44066000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44667000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48594000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56312000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57990000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70591000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70321000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70507000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70046000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70156000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71478000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71987000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73569000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>74862000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76175000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77956000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8382000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7615000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7635000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7956000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8442000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9201000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9824000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10168000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10663000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10364000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9851000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9702000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10223000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9419000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9367000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9598000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10036000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9676000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9413000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9380000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9939000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1025000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>36000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>749000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>850000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1292000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>603000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1233000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>524000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>340000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>98000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>99000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1407000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3215000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3736000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4586000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3324000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1289000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2224000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2449000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3153000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1095000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1113000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1168000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1199000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1158000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1238000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1861000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1911000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1779000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1824000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1896000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1856000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1966000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1963000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2011000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1922000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2049000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1890000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1947000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1967000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10359000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9735000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8784000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9873000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10491000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11651000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11665000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13262000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13098000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12483000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11773000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11697000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13486000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14600000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15066000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16195000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15282000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13014000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13527000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13776000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15059000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13286000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14370000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15687000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15834000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16036000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16471000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16763000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15409000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14770000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16333000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16978000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16449000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14644000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14159000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13865000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13526000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14875000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15871000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16600000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16538000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16463000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3268000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3378000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3357000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3418000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3575000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3783000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3940000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4268000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4847000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5567000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5651000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5791000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4339000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4328000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4431000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4569000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4674000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4783000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4807000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4905000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26507000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27676000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28146000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29493000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30363000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32125000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32627000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33033000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32552000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34077000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34739000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34218000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34345000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33513000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33672000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34554000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35145000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33996000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35342000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35569000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>36878000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8199000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7775000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7142000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7018000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6818000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7073000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10681000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18751000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19111000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31186000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31386000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31658000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31712000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31760000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32022000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32190000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35136000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35284000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36052000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>36470000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15004000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13362000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12762000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12543000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12071000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11941000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12040000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15561000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23760000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23913000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35852000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36103000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36162000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36533000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36484000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36924000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36842000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39573000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39520000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40606000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41078000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E81" s="3">
         <v>550000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>431000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>299000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>374000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-82000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>333000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>492000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>421000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>539000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>644000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>430000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>525000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>545000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-74000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>279000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-205000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E83" s="3">
         <v>530000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>526000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>532000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>583000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>587000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>604000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>792000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>848000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>938000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>903000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>919000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>887000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>876000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>874000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>906000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>956000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>986000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>989000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1016000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1070000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1220000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>429000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>878000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>479000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>803000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>784000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2252000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1745000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1108000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>326000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2331000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>987000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>568000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2251000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1898000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>858000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>656000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2013000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-447000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-273000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-243000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-178000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-258000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-251000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-407000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-494000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-413000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-404000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-413000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-621000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-565000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-520000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-454000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-625000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-598000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-503000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-381000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-654000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-619000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>211000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>246000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-740000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-547000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-203000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-934000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-644000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-230000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-315000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-895000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-112000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>282000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>221000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>473000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-55000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6031,7 +6264,7 @@
         <v>-175000</v>
       </c>
       <c r="F96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="G96" s="3">
         <v>-174000</v>
@@ -6040,10 +6273,10 @@
         <v>-174000</v>
       </c>
       <c r="I96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-692000</v>
       </c>
       <c r="K96" s="3">
         <v>-692000</v>
@@ -6052,34 +6285,34 @@
         <v>-692000</v>
       </c>
       <c r="M96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-693000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-692000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-693000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-692000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-692000</v>
       </c>
       <c r="S96" s="3">
         <v>-692000</v>
       </c>
       <c r="T96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-693000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-696000</v>
       </c>
       <c r="W96" s="3">
         <v>-696000</v>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1220000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-322000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-212000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-167000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>777000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-234000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-297000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-787000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>278000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-15000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-104000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E102" s="3">
         <v>130000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>171000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>424000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-375000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-243000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>87000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>238000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-283000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>236000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-203000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-404000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>66000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>109000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-213000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-512000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5962000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6225000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5847000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5634000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5223000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5532000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5258000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5356000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7455000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8228000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8541000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8269000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7879000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8179000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8504000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8303000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7829000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8179000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7905000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7462000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6894000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7107000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5013000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5136000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4862000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4768000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4504000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4828000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4624000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4925000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6614000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7136000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7382000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7236000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6956000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7193000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7305000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7184000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6834000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7169000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6787000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6469000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6082000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6113000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1089000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>985000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>866000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>719000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>704000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>634000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>431000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>841000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1092000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1159000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1033000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>923000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>986000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1199000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1119000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>995000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1010000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1118000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>993000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>812000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>994000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E12" s="3">
         <v>145000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>140000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>134000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>135000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>137000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>142000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>173000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>190000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>176000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>179000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>173000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>178000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>177000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>175000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>172000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>192000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>189000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>196000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>211000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>262000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,13 +1164,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1165,61 +1185,64 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-42000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>350000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3724000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8523000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>209000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12692000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>184000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>2796000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>49000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>591000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>82000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>676000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5251000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5389000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5082000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4972000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4720000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4986000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5196000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8872000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15437000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7664000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20370000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7529000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7241000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7442000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7587000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7657000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7117000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10266000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7140000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7366000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6473000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7149000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>711000</v>
+      </c>
+      <c r="E18" s="3">
         <v>836000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>765000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>662000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>503000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>546000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>564000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>740000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>638000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>737000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>917000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>646000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>712000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>765000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>96000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>421000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="3">
         <v>57000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>56000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>69000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-59000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>41000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>48000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>28000</v>
       </c>
       <c r="T20" s="3">
         <v>28000</v>
       </c>
       <c r="U20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V20" s="3">
         <v>73000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>92000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>70000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1425000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1351000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1204000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1054000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1198000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>671000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1442000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1709000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1575000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1672000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1845000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1570000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1614000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1794000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1174000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1480000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>901000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E22" s="3">
         <v>137000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>130000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>136000</v>
       </c>
       <c r="G22" s="3">
         <v>136000</v>
       </c>
       <c r="H22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="I22" s="3">
         <v>144000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>138000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>142000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>162000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>178000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>163000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>105000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>171000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>147000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>97000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>151000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>161000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>171000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>157000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>99000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E23" s="3">
         <v>756000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>691000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>542000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>386000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>471000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>452000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>593000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>509000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>648000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>787000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>547000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>643000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>677000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>334000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-214000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E24" s="3">
         <v>145000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>129000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>74000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>89000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-199000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-721000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-598000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>99000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>79000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>99000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>129000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>106000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>113000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>121000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>98000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>50000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E26" s="3">
         <v>611000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>562000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>443000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>312000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>382000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-73000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>343000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>494000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>430000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>549000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>658000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>441000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>530000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>556000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-81000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>284000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-195000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E27" s="3">
         <v>601000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>550000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>431000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>299000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>374000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-82000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>333000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>492000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>421000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>539000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>644000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>430000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>525000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>545000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-74000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>279000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2156,8 +2217,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2174,11 +2235,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2186,14 +2247,17 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-57000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-56000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-69000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>59000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-41000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-28000</v>
       </c>
       <c r="T32" s="3">
         <v>-28000</v>
       </c>
       <c r="U32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-73000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-92000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-70000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>73000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E33" s="3">
         <v>601000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>550000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>431000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>299000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>374000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-82000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>333000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>492000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>421000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>539000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>644000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>430000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>525000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>545000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-74000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>279000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E35" s="3">
         <v>601000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>550000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>431000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>299000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>374000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-82000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>333000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>492000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>421000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>539000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>644000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>430000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>525000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>545000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-74000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>279000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,647 +2834,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1757000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1569000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1439000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1268000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>844000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1219000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1462000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1375000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1137000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1183000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1466000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1230000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1433000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1493000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1461000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1865000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1799000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1690000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1903000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1902000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2929000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1382000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1373000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1243000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1642000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2162000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2618000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2127000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1969000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1030000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1109000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>882000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>925000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1361000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1588000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2300000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3290000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3262000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4315000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5451000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6328000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5713000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5315000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5349000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5347000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5269000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5247000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5552000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5808000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7486000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7747000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8332000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8471000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8171000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7881000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8409000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8606000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8472000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8084000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9436000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8925000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8636000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9387000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3719000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3272000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3296000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3267000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3303000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3354000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3542000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3601000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4148000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4130000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4341000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4389000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4224000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4010000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4108000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4120000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4174000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4046000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4308000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4338000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4288000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4225000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="E45" s="3">
         <v>928000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>781000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1325000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1312000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1284000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1381000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1288000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1486000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1186000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1125000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1223000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1063000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1112000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1125000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1244000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1278000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1218000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1792000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1606000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1058000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13253000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12654000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12387000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12077000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12807000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12919000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14215000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14379000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16266000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15530000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16151000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16333000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15773000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15731000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16483000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16900000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18055000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18497000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19914000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21273000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21883000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>23927000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2044000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2110000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2035000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2090000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2061000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1436000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1484000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1515000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1565000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1335000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1558000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1544000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1497000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1487000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1483000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1519000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1481000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1566000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1720000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6354000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6429000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6375000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6473000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6620000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6826000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7396000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7729000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8550000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9270000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9605000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11359000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11533000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11679000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11739000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11504000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11556000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11576000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12338000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12358000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12507000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12821000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16136000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16201000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16255000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16298000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16375000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16435000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16541000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16576000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16597000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23131000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23394000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33435000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33556000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33658000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34064000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34213000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34337000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34472000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34653000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34694000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34788000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34845000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4269000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4183000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3911000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4025000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4144000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4193000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4478000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4499000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5666000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6816000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7505000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7906000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7915000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7901000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6263000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6052000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6047000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5923000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5183000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4971000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5277000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4882000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41967000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41511000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41038000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40908000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42036000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42434000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44066000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44667000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48594000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56312000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57990000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70591000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70321000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70507000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70046000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70156000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71478000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71987000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73569000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>74862000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76175000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77956000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8638000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8382000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7615000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7635000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7956000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8442000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9201000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9824000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10168000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10663000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10364000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9851000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9702000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10223000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9419000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9367000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9598000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10036000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9676000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9413000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9380000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9939000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E58" s="3">
         <v>909000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1025000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>36000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>749000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>850000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1292000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>603000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1233000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>524000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>340000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>98000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>99000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1407000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3215000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3736000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4586000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3324000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1289000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2224000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2449000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3153000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1068000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1095000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1113000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1168000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1199000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1158000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1238000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1861000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1911000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1779000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1824000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1896000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1856000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1966000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1963000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2011000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1922000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2049000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1890000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1947000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1967000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10696000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10359000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9735000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8784000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9873000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10491000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11651000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11665000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13262000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13098000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12483000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11773000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11697000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13486000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14600000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15066000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16195000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15282000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13014000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13527000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13776000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15059000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13163000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13286000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14370000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15687000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15834000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16036000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16471000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16763000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15409000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14770000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16333000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16978000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16449000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14644000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14159000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13865000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13526000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14875000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15871000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16600000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16538000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16463000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2469000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2580000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3268000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3378000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3357000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3418000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3575000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3783000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3940000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4268000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4847000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5567000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5651000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5791000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4339000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4328000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4431000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4569000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4674000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4783000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4807000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4905000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26620000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26507000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27676000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28146000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29493000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30363000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32125000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32627000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33033000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32552000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34077000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34739000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34218000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34345000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33513000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33672000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34554000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35145000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33996000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35342000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>35569000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>36878000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8532000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8199000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7775000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7142000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7018000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6818000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7073000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10681000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18751000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19111000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31186000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31386000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31658000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31712000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31760000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32022000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32190000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35136000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35284000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>36052000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>36470000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15347000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15004000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13362000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12762000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12543000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12071000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11941000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12040000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15561000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23760000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23913000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35852000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36103000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36162000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36533000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36484000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36924000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36842000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39573000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39520000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40606000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41078000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E81" s="3">
         <v>601000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>550000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>431000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>299000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>374000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-82000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>333000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>492000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>421000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>539000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>644000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>430000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>525000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>545000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-74000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>279000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E83" s="3">
         <v>532000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>530000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>526000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>532000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>583000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>587000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>604000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>792000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>848000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>938000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>903000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>919000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>887000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>876000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>874000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>906000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>956000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>986000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>989000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1016000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1932000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1070000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1220000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>429000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>878000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>479000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>803000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>784000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2252000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1745000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1108000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>326000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2331000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1827000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>987000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>568000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2251000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1898000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>858000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>656000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2013000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-447000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-273000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-243000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-178000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-258000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-251000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-407000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-494000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-413000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-404000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-413000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-621000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-565000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-520000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-454000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-625000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-598000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-503000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-381000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-654000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-526000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-619000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>211000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>246000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-740000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-547000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-203000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-934000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-644000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-230000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-895000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-112000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>282000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>221000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>473000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-55000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6267,7 +6501,7 @@
         <v>-175000</v>
       </c>
       <c r="G96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="H96" s="3">
         <v>-174000</v>
@@ -6276,10 +6510,10 @@
         <v>-174000</v>
       </c>
       <c r="J96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-692000</v>
       </c>
       <c r="L96" s="3">
         <v>-692000</v>
@@ -6288,34 +6522,34 @@
         <v>-692000</v>
       </c>
       <c r="N96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-693000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-692000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-693000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-692000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-692000</v>
       </c>
       <c r="T96" s="3">
         <v>-692000</v>
       </c>
       <c r="U96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-693000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-696000</v>
       </c>
       <c r="X96" s="3">
         <v>-696000</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-322000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-212000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-167000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>777000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-234000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-297000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-787000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>278000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-15000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-104000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E102" s="3">
         <v>188000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>130000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>171000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>424000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-375000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-243000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>87000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>238000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-283000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>236000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-203000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-404000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>66000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>109000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-213000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-512000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6773000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5962000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6225000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5847000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5634000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5223000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5532000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5258000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5356000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7455000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8228000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8541000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8269000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7879000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8179000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8504000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8303000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7829000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8179000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7905000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7462000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6894000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7107000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5568000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5013000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5136000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4862000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4768000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4504000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4828000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4624000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4925000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6614000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7136000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7382000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7236000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6956000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7193000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7305000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7184000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6834000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7169000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6787000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6469000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6082000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6113000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E10" s="3">
         <v>949000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1089000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>985000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>866000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>719000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>704000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>634000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>431000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>841000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1092000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1159000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1033000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>923000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>986000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1199000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1119000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>995000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1010000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1118000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>993000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>812000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>994000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E12" s="3">
         <v>141000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>145000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>140000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>134000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>135000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>128000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>137000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>142000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>173000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>190000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>176000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>179000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>173000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>178000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>177000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>175000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>172000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>192000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>189000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>196000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>211000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>262000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,82 +1184,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>350000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>8523000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>209000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>12692000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>350000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3724000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>8523000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>209000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>12692000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-43000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>184000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>2796000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>49000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>591000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>82000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>676000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5251000</v>
+        <v>5592000</v>
       </c>
       <c r="E17" s="3">
-        <v>5389000</v>
+        <v>5225000</v>
       </c>
       <c r="F17" s="3">
+        <v>5361000</v>
+      </c>
+      <c r="G17" s="3">
         <v>5082000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4972000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4720000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4986000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5196000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8872000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15437000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7664000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20370000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7529000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7241000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7442000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7587000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7657000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7117000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10266000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7140000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7366000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6473000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7149000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>711000</v>
+        <v>1181000</v>
       </c>
       <c r="E18" s="3">
-        <v>836000</v>
+        <v>737000</v>
       </c>
       <c r="F18" s="3">
+        <v>864000</v>
+      </c>
+      <c r="G18" s="3">
         <v>765000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>662000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>503000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>546000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>62000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>564000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>740000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>638000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>737000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>917000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>646000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>712000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>765000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>96000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>421000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="E20" s="3">
-        <v>57000</v>
+        <v>24000</v>
       </c>
       <c r="F20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G20" s="3">
         <v>56000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>69000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>41000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>48000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>28000</v>
       </c>
       <c r="U20" s="3">
         <v>28000</v>
       </c>
       <c r="V20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W20" s="3">
         <v>73000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>92000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>70000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-73000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1808000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1294000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1425000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1351000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1204000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1054000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1198000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>671000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1442000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1709000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1575000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1672000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1845000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1570000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1614000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1794000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1174000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1480000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>901000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E22" s="3">
         <v>123000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>137000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>130000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>136000</v>
       </c>
       <c r="H22" s="3">
         <v>136000</v>
       </c>
       <c r="I22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="J22" s="3">
         <v>144000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>138000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>142000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>162000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>178000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>163000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>105000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>171000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>147000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>97000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>151000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>161000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>171000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>157000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>99000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E23" s="3">
         <v>638000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>756000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>691000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>542000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>386000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>471000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>452000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>593000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>509000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>648000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>787000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>547000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>643000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>677000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>334000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-214000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E24" s="3">
         <v>118000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>145000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>129000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>74000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>89000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-199000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-721000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-598000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>99000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>79000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>99000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>129000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>106000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>113000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-15000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>121000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>98000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>50000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E26" s="3">
         <v>520000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>611000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>562000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>443000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>312000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>382000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-73000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>343000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>494000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>430000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>549000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>658000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>441000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>530000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>556000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-81000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>284000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-195000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E27" s="3">
         <v>510000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>601000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>550000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>431000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>299000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>374000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-82000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>333000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>492000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>421000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>539000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>644000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>430000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>525000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>545000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-74000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>279000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2220,8 +2281,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2238,11 +2299,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2250,14 +2311,17 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50000</v>
+        <v>-95000</v>
       </c>
       <c r="E32" s="3">
-        <v>-57000</v>
+        <v>-24000</v>
       </c>
       <c r="F32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-56000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-69000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-41000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-28000</v>
       </c>
       <c r="U32" s="3">
         <v>-28000</v>
       </c>
       <c r="V32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-73000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-92000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>73000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E33" s="3">
         <v>510000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>601000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>550000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>431000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>299000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>374000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-82000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>333000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>492000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>421000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>539000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>644000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>430000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>525000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>545000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-74000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>279000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E35" s="3">
         <v>510000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>601000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>550000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>431000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>299000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>374000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-82000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>333000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>492000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>421000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>539000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>644000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>430000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>525000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>545000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-74000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>279000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,674 +2921,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1893000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1757000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1569000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1439000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1268000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>844000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1219000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1462000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1375000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1137000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1183000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1466000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1433000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1493000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1461000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1865000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1799000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1690000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1903000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1902000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2929000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1049000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1382000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1373000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1243000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1642000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2162000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2618000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2127000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1969000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1030000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1109000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>882000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>925000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1344000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1361000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1588000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2300000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3290000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3262000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4315000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5451000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6328000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5713000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5315000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5349000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5347000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5269000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5247000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5552000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5808000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7486000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7747000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8332000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8471000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8171000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7881000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8409000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8606000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8472000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8084000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9436000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8925000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8636000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9387000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3968000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3719000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3272000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3296000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3267000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3303000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3354000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3542000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3601000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4148000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4130000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4341000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4389000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4224000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4010000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4108000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4120000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4174000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4046000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4308000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4338000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4288000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4225000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1172000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>928000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>781000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1325000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1312000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1284000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1381000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1288000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1486000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1186000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1125000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1223000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1063000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1112000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1125000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1244000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1278000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1218000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1792000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1058000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14316000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13253000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12654000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12387000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12077000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12807000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12919000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14215000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14379000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16266000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15530000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16151000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16333000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15773000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15731000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16483000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16900000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18055000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18497000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19914000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21273000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21883000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>23927000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1767000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1955000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2044000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2110000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2035000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2090000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2061000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1436000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1484000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1515000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1565000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1335000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1558000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1538000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1497000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1487000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1483000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1519000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1481000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1566000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1720000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6386000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6354000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6429000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6375000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6473000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6620000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6826000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7396000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7729000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8550000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9270000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9605000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11359000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11533000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11679000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11739000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11504000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11556000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11576000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12338000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12358000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12507000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12821000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16111000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16136000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16201000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16255000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16298000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16375000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16435000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16541000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16576000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16597000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23131000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23394000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33435000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33556000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33658000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34064000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34213000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34337000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34472000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34653000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34694000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34788000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34845000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4269000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4183000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3911000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4025000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4144000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4193000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4478000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4499000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5666000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6816000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7505000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7906000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7915000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7901000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6263000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6052000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6047000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5923000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5183000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4971000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5277000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4882000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42827000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41967000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41511000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41038000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40908000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42036000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42434000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44066000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44667000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48594000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56312000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57990000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70591000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70321000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70507000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70046000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70156000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71478000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71987000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73569000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>74862000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76175000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>77956000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8528000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8638000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8382000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7615000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7635000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7956000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8442000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9201000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9824000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10168000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10663000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10364000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9851000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9702000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10223000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9419000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9367000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9598000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10036000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9676000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9413000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9380000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9939000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E58" s="3">
         <v>923000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>909000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1025000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>36000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>749000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>850000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1292000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>603000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1233000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>524000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>340000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>98000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>99000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1407000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3215000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3736000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4586000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3324000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1289000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2224000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2449000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3153000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1135000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1068000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1095000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1113000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1168000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1199000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1158000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1238000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1861000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1911000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1779000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1824000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1896000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1856000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1966000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1963000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2011000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1922000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2049000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1890000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1947000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1967000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10583000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10696000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10359000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9735000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8784000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9873000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10491000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11651000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11665000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13262000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13098000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12483000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11773000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11697000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13486000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14600000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15066000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16195000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15282000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13014000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13527000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13776000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15059000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12946000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13163000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13286000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14370000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15687000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15834000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16036000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16471000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16763000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15409000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14770000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16333000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16978000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16449000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14644000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14159000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13865000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13526000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14875000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15871000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16600000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16538000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16463000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2469000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2580000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3268000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3378000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3357000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3418000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3575000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3783000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3940000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4268000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4847000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5567000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5651000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5791000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4339000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4328000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4431000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4569000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4674000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4783000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4807000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4905000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26502000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26620000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26507000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27676000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28146000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29493000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30363000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32125000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32627000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33033000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32552000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34077000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34739000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34218000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34345000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33513000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33672000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34554000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35145000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33996000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>35342000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>35569000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36878000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9244000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8532000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8199000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7775000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7399000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7142000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7018000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6818000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7073000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10681000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18751000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19111000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31186000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31386000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31658000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31712000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31760000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32022000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32190000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35136000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35284000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>36052000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36470000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16325000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15347000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15004000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13362000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12762000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12543000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12071000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11941000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12040000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15561000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23760000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23913000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35852000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36103000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36162000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36533000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36484000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36924000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36842000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39573000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39520000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40606000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41078000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E81" s="3">
         <v>510000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>601000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>550000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>431000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>299000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>374000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-82000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>333000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>492000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>421000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>539000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>644000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>430000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>525000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>545000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-74000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>279000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E83" s="3">
         <v>533000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>532000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>530000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>526000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>532000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>583000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>587000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>604000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>792000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>848000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>938000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>903000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>919000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>887000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>876000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>874000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>906000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>956000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>986000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>989000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1016000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E89" s="3">
         <v>131000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1932000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1070000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1220000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>429000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>878000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>479000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>803000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>784000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2252000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1745000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1108000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>326000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2331000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1827000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>987000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>568000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2251000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1898000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>858000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>656000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2013000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-304000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-447000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-273000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-243000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-178000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-258000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-251000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-407000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-494000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-413000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-404000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-413000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-621000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-565000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-520000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-454000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-625000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-598000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-503000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-381000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-654000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-526000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-619000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>211000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>246000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-740000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-547000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-203000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-934000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-644000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-315000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-895000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-112000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>282000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>221000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>473000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,13 +6719,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175000</v>
+        <v>-177000</v>
       </c>
       <c r="E96" s="3">
         <v>-175000</v>
@@ -6504,7 +6738,7 @@
         <v>-175000</v>
       </c>
       <c r="H96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="I96" s="3">
         <v>-174000</v>
@@ -6513,10 +6747,10 @@
         <v>-174000</v>
       </c>
       <c r="K96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-692000</v>
       </c>
       <c r="M96" s="3">
         <v>-692000</v>
@@ -6525,34 +6759,34 @@
         <v>-692000</v>
       </c>
       <c r="O96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-693000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-692000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-693000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-692000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-692000</v>
       </c>
       <c r="U96" s="3">
         <v>-692000</v>
       </c>
       <c r="V96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-693000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-696000</v>
       </c>
       <c r="Y96" s="3">
         <v>-696000</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-322000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-212000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-167000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>777000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-234000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-787000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>278000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-15000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-104000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-157000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>188000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>130000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>171000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>424000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-375000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-243000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>87000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>238000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-283000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>236000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-60000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-404000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>66000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>109000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-213000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-512000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7477000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6773000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5962000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6225000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5847000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5634000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5223000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5532000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5258000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5356000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7455000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8228000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8541000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8269000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7879000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8179000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8504000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8303000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7829000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8179000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7905000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7462000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6894000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7107000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6042000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5568000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5013000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5136000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4862000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4768000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4504000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4828000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4624000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4925000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6614000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7136000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7382000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7236000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6956000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7193000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7305000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7184000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6834000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7169000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6787000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6469000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6082000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6113000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1205000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>949000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1089000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>985000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>866000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>719000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>704000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>634000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>431000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>841000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1092000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1159000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>923000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>986000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1199000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1119000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>995000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1010000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1118000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>993000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>812000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>994000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1046,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E12" s="3">
         <v>154000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>141000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>145000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>140000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>134000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>135000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>128000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>137000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>142000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>173000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>190000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>176000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>179000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>173000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>178000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>177000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>175000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>172000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>192000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>189000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>196000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>211000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>262000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,23 +1204,26 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-216000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-28000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1211,61 +1231,64 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-42000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>350000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3724000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8523000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>209000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12692000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-43000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>184000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>2796000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>49000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>591000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>82000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>676000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,85 +1393,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6296000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5592000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5225000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5361000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5082000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4972000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4720000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4986000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5196000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8872000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15437000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7664000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20370000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7529000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7241000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7442000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7587000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7657000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7117000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10266000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7140000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7366000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6473000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7149000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1453,76 +1483,79 @@
         <v>1181000</v>
       </c>
       <c r="E18" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="F18" s="3">
         <v>737000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>864000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>765000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>662000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>503000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>546000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>564000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>740000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>638000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>737000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>917000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>646000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>712000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>765000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>96000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>421000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E20" s="3">
         <v>95000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>24000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>56000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>69000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>41000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>48000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>28000</v>
       </c>
       <c r="V20" s="3">
         <v>28000</v>
       </c>
       <c r="W20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X20" s="3">
         <v>73000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>92000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>70000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-73000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1808000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1294000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1425000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1351000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1204000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1054000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1198000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>671000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1442000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1709000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1575000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1672000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1845000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1570000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1614000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1794000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1174000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1480000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>901000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E22" s="3">
         <v>124000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>123000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>137000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>130000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>136000</v>
       </c>
       <c r="I22" s="3">
         <v>136000</v>
       </c>
       <c r="J22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K22" s="3">
         <v>144000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>138000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>142000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>162000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>178000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>163000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>105000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>171000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>147000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>97000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>151000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>161000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>171000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>157000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>99000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1152000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>638000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>756000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>691000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>542000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>386000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>471000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>452000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>593000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>509000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>648000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>787000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>547000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>643000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>677000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>334000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-214000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E24" s="3">
         <v>182000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>118000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>145000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>74000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>89000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-199000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-721000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-598000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>99000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>79000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>99000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>129000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>106000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>113000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>121000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>98000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>50000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E26" s="3">
         <v>970000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>520000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>611000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>562000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>443000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>312000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>382000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>343000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>494000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>430000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>549000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>658000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>441000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>530000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>556000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-81000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>284000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-195000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E27" s="3">
         <v>959000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>510000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>601000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>550000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>431000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>299000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>374000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-82000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>333000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>492000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>421000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>539000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>644000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>430000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>525000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>545000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>279000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-205000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2284,8 +2345,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2314,14 +2375,17 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-95000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-24000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-56000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-69000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-41000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-28000</v>
       </c>
       <c r="V32" s="3">
         <v>-28000</v>
       </c>
       <c r="W32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-73000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-70000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>73000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E33" s="3">
         <v>959000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>510000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>601000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>550000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>431000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>299000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>374000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-82000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>333000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>492000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>421000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>539000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>644000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>430000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>525000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>545000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>279000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-205000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E35" s="3">
         <v>959000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>510000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>601000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>550000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>431000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>299000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>374000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-82000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>333000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>492000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>421000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>539000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>644000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>430000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>525000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>545000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>279000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-205000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,701 +3008,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1893000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1757000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1569000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1439000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1268000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>844000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1219000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1462000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1375000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1137000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1183000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1466000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1230000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1433000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1493000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1461000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1865000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1799000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1690000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1903000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1902000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2929000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E42" s="3">
         <v>923000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1049000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1382000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1373000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1243000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1642000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2162000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2618000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2127000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1969000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1030000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1109000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>882000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>925000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1344000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1361000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1588000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2300000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3290000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3262000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4315000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5451000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6328000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6650000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6247000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5713000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5315000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5349000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5347000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5269000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5247000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5552000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5808000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7486000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7747000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8332000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8471000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8171000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7881000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8409000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8606000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8472000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8084000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9436000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8925000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8636000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9387000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4143000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3968000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3719000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3272000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3296000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3267000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3303000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3354000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3542000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3601000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4148000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4130000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4341000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4389000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4224000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4010000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4108000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4120000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4174000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4046000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4308000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4338000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4288000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4225000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1285000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1172000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>928000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>781000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1325000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1312000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1284000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1381000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1288000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1486000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1186000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1223000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1063000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1112000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1125000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1244000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1278000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1218000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1792000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1606000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1058000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15611000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14316000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13253000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12654000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12387000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12077000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12807000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12919000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14215000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14379000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16266000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15530000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16151000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16333000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15773000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15731000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16483000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16900000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18055000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18497000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19914000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21273000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21883000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>23927000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1767000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1955000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2044000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2110000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2035000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2090000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2061000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1436000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1484000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1515000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1565000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1335000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1558000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1544000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1538000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1497000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1487000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1483000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1519000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1481000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1566000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1720000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6386000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6354000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6429000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6375000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6473000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6620000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6826000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7396000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7729000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8550000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9270000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9605000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11359000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11533000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11679000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11739000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11504000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11556000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11576000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12338000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12358000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12507000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12821000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16033000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16111000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16136000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16201000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16255000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16298000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16375000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16435000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16541000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16576000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16597000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23131000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23394000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33435000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33556000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33658000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34064000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34213000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34337000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34472000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34653000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34694000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34788000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34845000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4280000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4247000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4269000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4183000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3911000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4025000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4144000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4193000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4478000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4499000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5666000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6816000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7505000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7906000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7915000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7901000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6263000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6052000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6047000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5923000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5183000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4971000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5277000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4882000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44093000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42827000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41967000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41511000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41038000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40908000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42036000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42434000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44066000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44667000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48594000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56312000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57990000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70591000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70321000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70507000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70046000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70156000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71478000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71987000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>73569000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>74862000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76175000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>77956000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4188,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9034000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8528000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8638000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8382000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7615000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7635000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7956000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8442000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9201000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9824000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10168000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10663000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10364000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9851000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9702000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10223000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9419000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9367000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9598000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10036000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9676000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9413000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9380000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9939000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>899000</v>
+      </c>
+      <c r="E58" s="3">
         <v>901000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>923000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>909000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1025000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>36000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>749000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>850000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1292000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>603000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1233000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>524000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>340000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>98000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>99000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1407000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3215000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3736000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4586000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3324000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1289000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2224000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2449000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3153000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1154000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1135000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1068000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1095000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1113000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1168000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1199000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1158000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1238000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1861000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1911000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1779000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1824000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1896000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1856000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1966000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1963000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2011000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1922000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2049000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1890000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1947000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1967000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11134000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10583000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10696000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10359000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9735000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8784000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9873000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10491000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11651000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11665000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13262000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13098000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12483000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11773000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11697000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13486000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14600000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15066000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16195000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15282000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13014000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13527000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13776000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15059000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12452000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12946000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13163000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13286000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14370000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15687000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15834000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16036000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16471000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16763000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15409000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14770000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16333000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16978000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16449000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14644000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14159000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13865000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13526000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14875000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15871000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16600000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16538000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16463000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2673000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2469000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2580000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3268000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3378000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3357000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3418000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3575000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3783000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3940000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4268000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4847000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5567000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5651000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5791000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4339000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4328000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4431000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4569000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4674000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4783000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4807000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4905000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26894000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26502000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26620000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26507000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27676000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28146000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29493000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30363000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32125000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32627000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33033000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32552000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34077000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34739000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34218000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34345000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33513000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33672000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34554000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35145000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33996000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>35342000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>35569000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36878000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9904000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9244000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8532000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8199000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7775000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7399000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7142000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7018000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6818000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10681000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18751000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19111000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31186000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31386000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31658000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31712000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31760000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32022000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32190000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35136000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35284000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36052000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>36470000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17199000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16325000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15347000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15004000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13362000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12762000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12543000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12071000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11941000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12040000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15561000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23760000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23913000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35852000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36103000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36162000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36533000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36484000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36924000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36842000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39573000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39520000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40606000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41078000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E81" s="3">
         <v>959000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>510000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>601000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>550000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>431000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>299000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>374000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-82000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>333000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>492000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>421000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>539000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>644000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>430000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>525000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>545000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>279000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-205000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E83" s="3">
         <v>532000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>533000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>532000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>530000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>526000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>532000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>583000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>587000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>604000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>792000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>848000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>938000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>903000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>919000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>887000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>876000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>874000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>906000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>956000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>986000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>989000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1016000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="E89" s="3">
         <v>408000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>131000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1932000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1070000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1220000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>429000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>878000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>479000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>803000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>784000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2252000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1745000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>326000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2331000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1827000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>987000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>568000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2251000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1898000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>858000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>656000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2013000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-360000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-304000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-447000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-273000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-243000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-178000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-258000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-251000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-407000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-494000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-413000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-404000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-413000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-621000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-565000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-520000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-454000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-625000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-598000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-503000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-381000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-654000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1083000</v>
+      </c>
+      <c r="E94" s="3">
         <v>82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-115000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-526000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-619000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>211000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>246000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-740000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-547000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-203000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-934000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-644000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-230000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-315000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-895000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-112000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>282000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>221000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>473000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,16 +6953,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-177000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-175000</v>
       </c>
       <c r="F96" s="3">
         <v>-175000</v>
@@ -6741,7 +6975,7 @@
         <v>-175000</v>
       </c>
       <c r="I96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="J96" s="3">
         <v>-174000</v>
@@ -6750,10 +6984,10 @@
         <v>-174000</v>
       </c>
       <c r="L96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-692000</v>
       </c>
       <c r="N96" s="3">
         <v>-692000</v>
@@ -6762,34 +6996,34 @@
         <v>-692000</v>
       </c>
       <c r="P96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-693000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-692000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-693000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-692000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-692000</v>
       </c>
       <c r="V96" s="3">
         <v>-692000</v>
       </c>
       <c r="W96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-693000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-696000</v>
       </c>
       <c r="Z96" s="3">
         <v>-696000</v>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-188000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-170000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-322000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-212000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-167000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>777000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-297000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-787000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>278000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-15000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-104000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E102" s="3">
         <v>293000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>188000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>130000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>171000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>424000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-375000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-243000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>87000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>238000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-283000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>236000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-203000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-60000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-404000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>66000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>109000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-213000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-512000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7878000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7477000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6773000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5962000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6225000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5847000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5634000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5223000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5532000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5258000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5356000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7455000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8228000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8541000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8269000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7879000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8179000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8504000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8303000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7829000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8179000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7905000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7462000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6894000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7107000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6307000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6042000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5568000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5013000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5136000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4862000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4768000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4504000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4828000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4624000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4925000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6614000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7136000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7382000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7236000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6956000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7193000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7305000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7184000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6834000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7169000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6787000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6469000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6082000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6113000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1435000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1205000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>949000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1089000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>985000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>866000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>719000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>704000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>634000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>431000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>841000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1092000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1033000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>923000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>986000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1199000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1119000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>995000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1010000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1118000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>993000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>812000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>994000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E12" s="3">
         <v>160000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>154000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>141000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>145000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>140000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>134000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>135000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>128000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>137000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>142000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>173000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>190000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>176000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>179000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>173000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>178000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>177000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>175000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>172000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>192000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>189000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>196000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>211000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>262000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,26 +1223,29 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-83000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-216000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-26000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-28000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1234,61 +1253,64 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-42000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>350000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3724000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8523000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>209000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12692000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-43000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>184000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>2796000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>49000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>591000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>82000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>676000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6501000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6296000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5592000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5225000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5082000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4972000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4720000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4986000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5196000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8872000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15437000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7664000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20370000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7529000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7241000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7442000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7587000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7657000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7117000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10266000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7140000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7366000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6473000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7149000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1181000</v>
+        <v>1377000</v>
       </c>
       <c r="E18" s="3">
         <v>1181000</v>
       </c>
       <c r="F18" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="G18" s="3">
         <v>737000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>864000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>765000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>662000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>503000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>546000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>564000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>740000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>638000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>737000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>917000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>646000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>712000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>765000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>96000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>421000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1584,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E20" s="3">
         <v>75000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>95000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>56000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-59000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>41000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>48000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>28000</v>
       </c>
       <c r="W20" s="3">
         <v>28000</v>
       </c>
       <c r="X20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>73000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>92000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>70000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-73000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2017000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1789000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1808000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1294000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1351000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1204000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1054000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1198000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>671000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1442000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1709000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1575000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1672000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1845000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1570000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1614000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1794000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1174000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1480000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>901000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E22" s="3">
         <v>122000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>124000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>123000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>137000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>130000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>136000</v>
       </c>
       <c r="J22" s="3">
         <v>136000</v>
       </c>
       <c r="K22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="L22" s="3">
         <v>144000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>138000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>78000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>142000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>162000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>178000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>163000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>105000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>171000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>147000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>97000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>151000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>161000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>171000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>157000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>99000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1347000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1134000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1152000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>638000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>756000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>691000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>542000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>386000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>471000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>452000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>593000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>509000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>648000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>787000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>547000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>643000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>677000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>334000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-214000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E24" s="3">
         <v>215000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>182000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>118000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>145000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>129000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>74000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>89000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-199000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-721000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>109000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-598000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>99000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>79000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>99000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>129000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>106000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>113000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>121000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>98000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>50000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1082000</v>
+      </c>
+      <c r="E26" s="3">
         <v>919000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>970000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>520000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>611000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>562000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>443000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>312000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>382000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-73000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>343000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>494000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>430000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>549000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>658000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>441000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>530000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>556000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-81000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>284000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-195000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E27" s="3">
         <v>907000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>959000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>510000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>601000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>550000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>431000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>299000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>374000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-82000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>333000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>492000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>421000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>539000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>644000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>430000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>525000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>545000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>279000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-205000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2348,8 +2408,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2366,11 +2426,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2378,14 +2438,17 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-75000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-95000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-56000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>59000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-41000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-28000</v>
       </c>
       <c r="W32" s="3">
         <v>-28000</v>
       </c>
       <c r="X32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-70000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>73000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E33" s="3">
         <v>907000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>959000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>510000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>601000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>550000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>431000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>299000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>374000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-82000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>333000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>492000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>421000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>539000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>644000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>430000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>525000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>545000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>279000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-205000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E35" s="3">
         <v>907000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>959000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>510000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>601000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>550000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>431000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>299000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>374000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-82000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>333000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>492000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>421000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>539000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>644000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>430000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>525000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>545000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>279000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-205000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,728 +3094,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1655000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2180000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1893000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1757000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1569000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1439000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1268000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>844000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1219000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1462000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1375000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1137000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1183000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1466000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1230000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1433000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1493000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1461000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1865000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1799000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1690000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1903000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1902000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2929000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1429000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>923000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1049000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1382000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1373000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1243000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1642000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2162000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2618000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2127000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1969000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1030000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1109000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>882000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>925000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1344000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1361000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1588000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2300000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3290000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3262000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4315000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5451000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6328000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7032000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6650000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6247000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5713000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5315000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5349000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5347000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5269000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5247000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5552000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5808000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7486000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7747000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8332000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8471000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8171000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7881000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8409000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8606000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8472000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8084000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9436000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8925000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8636000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9387000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3999000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4143000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3968000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3719000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3272000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3296000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3267000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3303000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3354000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3542000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3601000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4148000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4130000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4341000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4389000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4224000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4010000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4108000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4120000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4174000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4046000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4308000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4338000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4288000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4225000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1209000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1285000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1172000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>928000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>781000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1325000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1312000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1284000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1381000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1288000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1486000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1186000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1125000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1223000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1063000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1112000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1125000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1244000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1278000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1218000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1792000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1606000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1058000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15003000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15611000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14316000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13253000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12654000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12387000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12077000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12807000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12919000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14215000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14379000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16266000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15530000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16151000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16333000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15773000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15731000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16483000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16900000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18055000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18497000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19914000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21273000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21883000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>23927000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1762000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1767000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1955000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2044000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2110000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2035000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2090000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2061000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1436000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1484000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1515000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1565000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1558000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1544000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1538000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1497000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1487000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1483000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1519000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1566000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1720000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6607000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6407000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6386000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6354000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6429000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6375000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6473000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6620000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6826000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7396000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7729000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8550000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9270000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9605000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11359000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11533000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11679000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11739000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11504000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11556000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11576000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12338000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12358000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12507000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12821000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15974000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16033000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16111000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16136000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16201000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16255000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16298000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16375000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16435000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16541000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16576000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16597000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23131000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23394000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33435000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33556000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33658000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34064000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34213000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34337000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34472000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34653000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34694000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34788000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34845000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4280000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4247000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4269000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4183000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3911000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4025000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4144000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4193000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4478000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4499000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5666000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6816000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7505000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7906000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7915000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7901000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6263000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6052000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6047000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5923000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5183000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4971000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5277000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4882000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43135000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44093000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42827000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41967000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41511000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41038000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40908000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42036000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42434000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44066000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44667000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48594000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56312000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57990000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70591000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70321000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70507000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70046000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70156000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71478000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71987000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>73569000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>74862000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76175000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77956000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9121000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9034000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8528000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8638000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8382000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7615000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7635000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7956000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8442000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9201000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9824000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10168000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10663000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10364000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9851000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9702000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10223000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9419000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9367000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9598000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10036000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9676000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9413000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9380000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9939000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E58" s="3">
         <v>899000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>901000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>923000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>909000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1025000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>36000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>749000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>850000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1292000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>603000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1233000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>524000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>340000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>98000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>99000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1407000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3215000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3736000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4586000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3324000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1289000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2224000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2449000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3153000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1201000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1154000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1135000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1068000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1095000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1113000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1168000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1199000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1158000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1238000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1861000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1911000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1779000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1824000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1896000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1856000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1966000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1963000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2011000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1922000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2049000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1890000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1947000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1967000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12018000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11134000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10583000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10696000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10359000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9735000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8784000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9873000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10491000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11651000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11665000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13262000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13098000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12483000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11773000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11697000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13486000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14600000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15066000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16195000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15282000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13014000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13527000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13776000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15059000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10594000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12452000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12946000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13163000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13286000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14370000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15687000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15834000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16036000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16471000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16763000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15409000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14770000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16333000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16978000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16449000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14644000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14159000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13865000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13526000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14875000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15871000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16600000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16538000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16463000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2534000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2996000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2673000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2469000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2580000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3268000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3378000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3357000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3418000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3575000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3783000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3940000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4268000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4847000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5567000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5651000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5791000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4339000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4328000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4431000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4569000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4674000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4783000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4807000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4905000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25450000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26894000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26502000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26620000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26507000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27676000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28146000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29493000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30363000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32125000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32627000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33033000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32552000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34077000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34739000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34218000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34345000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33513000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33672000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34554000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>35145000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33996000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>35342000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>35569000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>36878000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10719000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9904000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9244000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8532000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8199000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7775000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7399000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7142000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7018000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6818000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10681000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18751000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19111000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31186000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31386000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31658000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31712000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31760000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32022000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32190000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35136000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35284000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>36052000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>36470000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17199000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16325000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15347000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15004000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13362000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12762000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12543000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12071000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11941000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12040000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15561000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23760000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23913000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35852000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36103000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36162000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36533000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36484000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36924000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36842000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39573000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39520000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40606000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41078000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E81" s="3">
         <v>907000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>959000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>510000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>601000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>550000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>431000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>299000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>374000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-82000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>333000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>492000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>421000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>539000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>644000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>430000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>525000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>545000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>279000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-205000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E83" s="3">
         <v>533000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>532000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>533000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>532000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>530000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>526000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>532000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>583000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>587000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>604000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>792000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>848000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>938000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>903000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>919000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>887000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>876000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>874000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>906000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>956000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>986000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>989000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1016000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1567000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>408000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>131000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1932000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1070000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1220000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>429000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>878000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>479000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>803000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>784000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2252000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1745000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1108000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>326000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2331000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1827000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>987000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>568000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2251000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1898000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>858000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>656000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2013000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-572000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-382000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-360000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-304000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-447000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-273000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-243000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-178000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-258000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-251000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-407000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-494000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-413000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-404000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-413000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-621000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-565000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-520000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-454000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-625000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-598000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-503000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-381000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-654000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1083000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>82000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-115000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-526000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-619000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>211000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>246000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-740000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-547000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-203000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-934000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-644000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-230000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-315000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-895000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-112000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>282000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>221000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>473000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,10 +7196,10 @@
         <v>-248000</v>
       </c>
       <c r="E96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-177000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-175000</v>
       </c>
       <c r="G96" s="3">
         <v>-175000</v>
@@ -6978,7 +7211,7 @@
         <v>-175000</v>
       </c>
       <c r="J96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="K96" s="3">
         <v>-174000</v>
@@ -6987,10 +7220,10 @@
         <v>-174000</v>
       </c>
       <c r="M96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-692000</v>
       </c>
       <c r="O96" s="3">
         <v>-692000</v>
@@ -6999,34 +7232,34 @@
         <v>-692000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-693000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-692000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-693000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-692000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-692000</v>
       </c>
       <c r="W96" s="3">
         <v>-692000</v>
       </c>
       <c r="X96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-693000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-696000</v>
       </c>
       <c r="AA96" s="3">
         <v>-696000</v>
@@ -7034,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1844000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-180000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-188000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-170000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-322000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-212000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-167000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>777000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-297000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-787000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>278000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-15000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-104000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-525000</v>
+      </c>
+      <c r="E102" s="3">
         <v>287000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>293000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>188000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>130000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>171000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>424000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-375000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-243000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>238000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>236000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-203000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-60000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-404000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>66000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>109000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-213000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-512000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7736000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7878000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7477000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6773000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5962000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6225000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5847000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5634000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5223000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5532000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5258000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5356000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7455000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8228000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8541000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8269000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7879000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8179000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8504000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8303000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7829000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8179000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7905000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7462000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6894000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7107000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6285000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6307000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6042000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5568000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5013000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5136000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4862000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4768000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4504000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4828000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4624000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4925000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6614000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7136000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7382000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7236000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6956000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7193000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7305000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7184000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6834000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7169000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6787000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6469000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6082000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6113000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1571000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1435000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1205000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>949000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1089000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>985000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>866000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>719000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>704000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>634000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>431000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>841000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1159000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1033000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>923000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>986000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1199000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1119000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>995000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1010000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1118000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>993000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>812000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>994000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E12" s="3">
         <v>178000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>160000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>154000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>141000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>145000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>140000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>134000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>135000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>128000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>137000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>142000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>173000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>190000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>176000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>179000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>173000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>178000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>177000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>175000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>172000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>192000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>189000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>196000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>211000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>262000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,29 +1243,32 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-83000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-216000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-26000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-28000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1256,61 +1276,64 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-42000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>350000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3724000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8523000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>209000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12692000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-43000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>184000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2796000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>49000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>591000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>82000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>676000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6514000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6501000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6296000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5592000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5225000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5082000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4972000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4720000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4986000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5196000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8872000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15437000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7664000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20370000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7529000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7241000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7442000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7587000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7657000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7117000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10266000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7140000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7366000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6473000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7149000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1377000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1181000</v>
       </c>
       <c r="F18" s="3">
         <v>1181000</v>
       </c>
       <c r="G18" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="H18" s="3">
         <v>737000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>864000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>765000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>662000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>503000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>546000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>564000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>740000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>638000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>737000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>917000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>646000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>712000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>765000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>96000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>421000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E20" s="3">
         <v>91000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>75000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>95000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>56000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-59000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>41000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>48000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>28000</v>
       </c>
       <c r="X20" s="3">
         <v>28000</v>
       </c>
       <c r="Y20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>73000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>92000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>70000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-73000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2017000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1789000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1808000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1294000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1425000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1351000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1204000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1054000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1198000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>671000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1709000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1575000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1672000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1845000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1570000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1614000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1794000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1174000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1480000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>901000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E22" s="3">
         <v>121000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>122000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>124000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>123000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>137000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>130000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>136000</v>
       </c>
       <c r="K22" s="3">
         <v>136000</v>
       </c>
       <c r="L22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="M22" s="3">
         <v>144000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>138000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>142000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>162000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>178000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>163000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>105000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>171000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>147000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>97000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>151000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>161000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>171000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>157000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>99000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1347000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1134000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1152000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>638000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>756000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>691000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>542000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>386000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>471000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-54000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>452000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>593000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>509000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>648000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>787000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>547000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>643000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>677000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>334000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-214000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E24" s="3">
         <v>265000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>215000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>182000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>118000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>145000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-199000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-721000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>109000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-598000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>99000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>79000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>99000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>129000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>106000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>113000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>121000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>98000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>50000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1082000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>919000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>970000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>520000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>611000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>562000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>443000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>312000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>382000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-73000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>343000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>494000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>430000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>549000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>658000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>441000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>530000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>556000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-81000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>284000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-195000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1064000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>907000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>959000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>510000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>601000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>550000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>431000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>299000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>374000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-82000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>333000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>492000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>421000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>539000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>644000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>430000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>525000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>545000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>279000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-205000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2411,8 +2472,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2429,11 +2490,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2441,14 +2502,17 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-91000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-75000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-95000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-56000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>59000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-41000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-28000</v>
       </c>
       <c r="X32" s="3">
         <v>-28000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-73000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-92000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-70000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>73000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1064000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>907000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>959000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>510000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>601000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>550000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>431000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>299000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>374000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-82000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>333000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>492000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>421000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>539000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>644000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>430000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>525000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>545000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>279000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-205000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1064000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>907000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>959000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>510000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>601000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>550000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>431000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>299000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>374000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-82000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>333000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>492000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>421000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>539000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>644000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>430000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>525000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>545000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>279000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-205000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,755 +3181,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1655000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2180000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1893000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1757000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1569000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1439000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1268000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>844000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1219000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1462000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1375000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1183000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1466000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1230000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1433000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1493000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1461000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1865000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1799000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1690000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1903000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1902000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2929000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1239000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1429000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>923000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1049000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1382000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1373000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1243000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1642000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2162000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2618000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2127000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1969000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1030000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1109000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>882000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>925000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1344000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1361000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1588000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2300000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3290000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3262000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4315000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5451000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6328000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7578000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7032000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6650000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6247000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5713000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5315000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5347000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5269000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5247000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5552000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5808000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7486000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7747000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8332000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8471000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8171000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7881000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8409000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8606000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8472000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8084000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9436000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8925000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8636000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9387000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4286000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3999000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4143000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3968000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3719000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3272000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3296000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3267000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3354000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3542000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3601000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4148000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4130000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4341000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4389000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4224000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4010000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4108000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4120000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4174000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4046000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4308000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4338000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4288000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4225000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1078000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1209000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1285000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1172000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>928000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>781000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1325000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1312000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1284000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1381000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1288000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1486000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1186000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1125000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1223000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1063000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1112000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1125000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1244000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1278000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1218000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1792000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1606000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1058000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15400000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15003000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15611000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14316000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13253000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12654000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12387000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12077000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12807000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12919000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14215000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14379000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16266000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15530000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16151000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16333000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15773000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15731000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16483000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16900000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18055000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18497000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19914000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21273000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21883000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>23927000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1581000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1762000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1767000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1955000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2044000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2110000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2035000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2090000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2061000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1436000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1484000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1515000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1335000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1558000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1544000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1538000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1497000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1487000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1483000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1519000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1481000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1566000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1720000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6691000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6607000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6407000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6386000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6354000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6429000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6375000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6473000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6620000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6826000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7396000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7729000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8550000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9270000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9605000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11359000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11533000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11679000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11739000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11504000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11556000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11576000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12338000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12358000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12507000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12821000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16134000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15974000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16033000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16111000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16136000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16201000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16255000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16298000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16375000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16435000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16541000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16576000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16597000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23131000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23394000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33435000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33556000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33658000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34064000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34213000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34337000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34472000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34653000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34694000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34788000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34845000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4076000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3970000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4280000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4247000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4269000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4183000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3911000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4025000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4144000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4193000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4478000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4499000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5666000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6816000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7505000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7906000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7915000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7901000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6263000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6052000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6047000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5923000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5183000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4971000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5277000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4882000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43855000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43135000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44093000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42827000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41967000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41511000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41038000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40908000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42036000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42434000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44066000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44667000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48594000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56312000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57990000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70591000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70321000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70507000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70046000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70156000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71478000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71987000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73569000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>74862000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>76175000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>77956000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9121000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9034000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8528000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8638000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8382000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7615000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7635000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7956000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8442000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9201000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9824000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10168000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10663000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10364000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9851000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9702000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10223000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9419000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9367000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9598000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10036000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9676000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9413000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9380000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9939000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1632000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>899000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>901000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>923000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>909000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1025000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>749000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>850000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1292000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>603000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1233000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>524000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>340000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>98000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>99000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1407000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3215000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3736000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4586000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3324000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1289000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2224000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2449000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3153000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1265000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1201000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1154000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1135000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1068000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1095000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1113000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1168000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1199000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1158000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1238000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1861000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1911000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1779000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1824000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1896000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1856000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1966000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1963000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2011000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1922000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2049000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1890000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1947000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1967000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12252000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12018000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11134000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10583000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10696000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10359000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9735000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8784000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9873000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10491000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11651000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11665000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13262000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13098000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12483000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11773000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11697000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13486000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14600000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15066000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16195000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15282000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13014000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13527000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>13776000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15059000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10698000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10594000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12452000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12946000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13163000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13286000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14370000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15687000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15834000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16036000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16471000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16763000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15409000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14770000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16333000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16978000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16449000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14644000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14159000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13865000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13526000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14875000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15871000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16600000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16538000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16463000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2534000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2996000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2673000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2469000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2580000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3268000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3378000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3357000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3418000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3575000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3783000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3940000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4268000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4847000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5567000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5651000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5791000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4339000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4328000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4431000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4569000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4674000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4783000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4807000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4905000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25787000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25450000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26894000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26502000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26620000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26507000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27676000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28146000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29493000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30363000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32125000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32627000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33033000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32552000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34077000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34739000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34218000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34345000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33513000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33672000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34554000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>35145000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33996000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>35342000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>35569000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>36878000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11296000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10719000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9904000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9244000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8532000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8199000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7775000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7399000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7142000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7018000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6818000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7073000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10681000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18751000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19111000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31186000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31386000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31658000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31712000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31760000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32022000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>32190000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35136000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35284000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>36052000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>36470000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18068000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17199000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16325000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15347000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15004000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13362000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12762000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12543000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12071000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11941000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12040000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15561000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23760000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23913000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35852000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36103000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36162000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36533000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36484000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36924000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36842000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39573000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39520000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40606000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>41078000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1064000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>907000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>959000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>510000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>601000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>550000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>431000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>299000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>374000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-82000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>333000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>492000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>421000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>539000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>644000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>430000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>525000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>545000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>279000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-205000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E83" s="3">
         <v>549000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>533000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>532000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>533000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>532000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>530000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>526000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>532000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>583000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>587000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>604000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>792000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>848000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>938000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>903000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>919000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>887000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>876000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>874000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>906000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>956000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>986000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>989000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1016000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1614000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1567000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>408000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>131000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1932000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1070000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1220000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>429000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>878000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>479000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>803000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>784000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2252000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1745000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1108000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>326000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2331000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1827000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>987000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>568000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2251000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1898000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>858000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>656000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2013000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-572000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-382000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-360000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-304000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-447000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-273000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-243000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-258000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-251000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-407000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-413000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-404000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-413000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-621000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-565000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-520000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-454000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-625000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-598000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-503000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-381000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-654000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-547000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-272000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1083000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>82000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-115000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-526000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-619000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>211000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>246000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-740000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-547000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-934000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-644000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-230000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-315000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-895000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-112000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>282000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>221000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>473000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-55000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,22 +7420,23 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-248000</v>
+        <v>-249000</v>
       </c>
       <c r="E96" s="3">
         <v>-248000</v>
       </c>
       <c r="F96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-177000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-175000</v>
       </c>
       <c r="H96" s="3">
         <v>-175000</v>
@@ -7214,7 +7448,7 @@
         <v>-175000</v>
       </c>
       <c r="K96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="L96" s="3">
         <v>-174000</v>
@@ -7223,10 +7457,10 @@
         <v>-174000</v>
       </c>
       <c r="N96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-692000</v>
       </c>
       <c r="P96" s="3">
         <v>-692000</v>
@@ -7235,34 +7469,34 @@
         <v>-692000</v>
       </c>
       <c r="R96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-693000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-692000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-693000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-692000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-692000</v>
       </c>
       <c r="X96" s="3">
         <v>-692000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-693000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-696000</v>
       </c>
       <c r="AB96" s="3">
         <v>-696000</v>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1844000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-180000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-188000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-170000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-322000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-212000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-167000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>777000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-297000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-787000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>278000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-15000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-104000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-525000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>287000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>293000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-157000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>188000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>130000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>171000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>424000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-375000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-243000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>238000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-283000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>236000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-203000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-60000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>32000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-404000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>66000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>109000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-213000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-512000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8099000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7736000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7878000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7477000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6773000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5962000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6225000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5847000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5634000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5223000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5532000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5258000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5356000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7455000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8228000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8541000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8269000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7879000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8179000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8504000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8303000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7829000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8179000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7905000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7462000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6894000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7107000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6502000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6285000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6307000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6042000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5568000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5013000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5136000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4862000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4768000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4504000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4828000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4624000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4925000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6614000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7136000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7382000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7236000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6956000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7193000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7305000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7184000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6834000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7169000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6787000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6469000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6082000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6113000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1451000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1571000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1435000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1205000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>949000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1089000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>985000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>866000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>719000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>704000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>634000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>431000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>841000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1092000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1159000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1033000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>923000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>986000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1199000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1119000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>995000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1010000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1118000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>993000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>812000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>994000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,94 +1087,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E12" s="3">
         <v>174000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>178000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>160000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>154000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>141000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>145000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>140000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>134000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>135000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>128000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>137000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>142000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>173000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>190000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>176000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>179000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>173000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>178000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>177000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>175000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>172000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>192000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>189000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>196000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>211000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>262000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,32 +1263,35 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-36000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-83000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-216000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-26000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-28000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1279,61 +1299,64 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-42000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>350000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3724000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8523000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>209000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12692000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-43000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>184000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2796000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>49000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>591000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>82000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>676000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6761000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6514000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6501000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6296000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5592000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5225000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5082000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4972000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4720000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4986000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5196000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8872000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15437000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7664000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20370000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7529000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7241000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7442000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7587000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7657000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7117000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10266000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7140000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7366000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6473000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7149000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1222000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1377000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1181000</v>
       </c>
       <c r="G18" s="3">
         <v>1181000</v>
       </c>
       <c r="H18" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="I18" s="3">
         <v>737000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>864000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>765000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>662000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>503000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>546000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>62000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>564000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>740000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>638000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>737000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>917000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>646000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>712000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>765000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>96000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>421000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-42000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,438 +1684,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E20" s="3">
         <v>56000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>91000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>75000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>95000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>56000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-59000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>31000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>41000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>48000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>28000</v>
       </c>
       <c r="Y20" s="3">
         <v>28000</v>
       </c>
       <c r="Z20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>73000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>92000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>70000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-73000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1981000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1841000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2017000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1789000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1808000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1294000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1425000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1351000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1204000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1054000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1198000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>671000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1442000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1709000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1575000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1672000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1845000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1570000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1614000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1794000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1174000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1480000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>901000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E22" s="3">
         <v>117000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>121000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>122000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>124000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>123000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>137000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>130000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>136000</v>
       </c>
       <c r="L22" s="3">
         <v>136000</v>
       </c>
       <c r="M22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="N22" s="3">
         <v>144000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>138000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>78000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>142000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>162000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>178000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>163000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>105000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>171000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>147000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>97000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>151000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>161000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>171000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>157000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>99000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1161000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1347000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1134000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1152000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>638000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>756000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>691000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>542000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>386000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>471000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-54000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>452000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>593000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>509000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>648000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>787000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>547000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>643000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>677000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>334000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-214000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E24" s="3">
         <v>217000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>265000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>215000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>182000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>118000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>145000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>129000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-199000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-721000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>109000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-598000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>99000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>79000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>99000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>129000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>106000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>113000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>121000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>98000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>50000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-19000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E26" s="3">
         <v>944000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1082000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>919000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>970000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>520000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>611000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>562000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>443000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>312000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>382000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-73000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>343000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>494000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>430000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>549000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>658000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>441000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>530000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>556000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-81000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>284000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-195000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E27" s="3">
         <v>934000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1064000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>907000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>959000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>510000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>601000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>550000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>431000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>299000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>374000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-82000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>333000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>492000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>421000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>539000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>644000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>430000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>525000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>545000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>279000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-205000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2475,8 +2536,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2493,11 +2554,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2505,14 +2566,17 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-56000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-91000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-75000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-95000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-56000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>59000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-31000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-41000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-28000</v>
       </c>
       <c r="Y32" s="3">
         <v>-28000</v>
       </c>
       <c r="Z32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-73000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-92000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-70000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>73000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E33" s="3">
         <v>934000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1064000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>907000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>959000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>510000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>601000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>550000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>431000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>299000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>374000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-82000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>333000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>492000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>421000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>539000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>644000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>430000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>525000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>545000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>279000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-205000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E35" s="3">
         <v>934000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1064000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>907000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>959000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>510000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>601000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>550000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>431000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>299000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>374000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-82000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>333000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>492000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>421000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>539000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>644000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>430000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>525000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>545000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>279000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-205000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,782 +3268,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1930000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1501000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1655000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2180000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1893000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1757000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1569000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1439000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1268000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>844000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1219000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1462000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1137000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1183000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1466000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1230000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1433000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1493000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1461000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1865000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1799000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1690000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1903000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1902000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2929000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1003000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1239000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1429000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>923000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1049000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1382000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1373000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1243000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1642000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2162000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2618000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2127000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1969000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1030000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1109000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>882000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>925000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1344000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1361000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1588000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2300000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3290000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3262000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4315000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5451000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>6328000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7675000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7578000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7032000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6650000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6247000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5713000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5315000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5349000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5347000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5269000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5247000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5552000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5808000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7486000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7747000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8332000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8471000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8171000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7881000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8409000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8606000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8472000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8084000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9436000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8925000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8636000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9387000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4360000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4286000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3999000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4143000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3968000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3719000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3272000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3296000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3267000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3303000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3354000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3542000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3601000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4148000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4130000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4341000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4389000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4224000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4010000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4108000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4120000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4174000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4046000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4308000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4338000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4288000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4225000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>925000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1032000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1078000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1209000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1285000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1172000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>928000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>781000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1325000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1312000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1284000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1381000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1288000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1486000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1186000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1125000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1223000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1063000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1112000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1125000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1244000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1278000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1218000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1792000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1606000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1058000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16154000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15400000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15003000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15611000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14316000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13253000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12654000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12387000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12077000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12807000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12919000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14215000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14379000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16266000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15530000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16151000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16333000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15773000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15731000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16483000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16900000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18055000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18497000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19914000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21273000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21883000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>23927000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1554000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1581000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1762000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1767000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1955000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2044000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2110000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2035000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2090000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2061000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1436000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1484000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1515000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1565000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1335000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1558000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1544000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1538000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1497000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1487000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1483000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1519000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1566000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1720000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6804000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6691000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6607000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6407000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6386000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6354000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6429000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6375000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6473000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6620000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6826000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7396000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7729000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8550000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9270000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9605000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11359000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11533000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11679000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11739000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11504000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11556000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11576000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12338000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12358000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12507000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12821000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16085000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16134000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15974000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16033000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16111000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16136000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16201000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16255000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16298000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16375000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16435000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16541000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16576000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16597000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23131000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23394000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33435000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33556000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>33658000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34064000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34213000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34337000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34472000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34653000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34694000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34788000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>34845000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4182000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4076000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3970000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4280000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4247000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4269000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4183000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3911000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4025000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4144000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4193000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4478000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4499000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5666000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6816000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7505000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7906000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7915000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7901000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6263000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6052000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6047000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5923000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5183000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4971000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5277000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4882000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44826000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43855000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43135000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44093000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42827000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41967000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41511000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41038000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40908000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42036000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42434000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44066000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44667000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48594000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56312000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57990000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70591000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70321000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70507000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70046000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70156000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71478000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>71987000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>73569000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>74862000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>76175000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>77956000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4580,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8938000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9121000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9034000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8528000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8638000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8382000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7615000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7635000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7956000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8442000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9201000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9824000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10168000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10663000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10364000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9851000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9702000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10223000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9419000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9367000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9598000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10036000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9676000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9413000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9380000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9939000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2140000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1632000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>899000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>901000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>923000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>909000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1025000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>749000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>850000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1292000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>603000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>524000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>340000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>98000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>99000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1407000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3215000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3736000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4586000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3324000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1289000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2224000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2449000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3153000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1412000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1265000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1201000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1154000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1135000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1068000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1095000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1113000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1168000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1199000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1158000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1238000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1911000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1779000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1824000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1896000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1856000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1966000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1963000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1922000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2049000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1890000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1947000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1967000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12163000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12252000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12018000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11134000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10583000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10696000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10359000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9735000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8784000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9873000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10491000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11651000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11665000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13262000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13098000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12483000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11773000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11697000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13486000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14600000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15066000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16195000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15282000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13014000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>13527000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>13776000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15059000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11342000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10594000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12452000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12946000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13163000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13286000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14370000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15687000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15834000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16036000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16471000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16763000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15409000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14770000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16333000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16978000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16449000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14644000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14159000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13865000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13526000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14875000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15871000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16600000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16538000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16463000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2525000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2534000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2996000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2673000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2469000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2580000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3268000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3378000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3357000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3418000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3575000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3783000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3940000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4268000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4847000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5567000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5651000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5791000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4339000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4328000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4431000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4569000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4674000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4783000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4807000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4905000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26218000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25787000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25450000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26894000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26502000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26620000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26507000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28146000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29493000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30363000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32125000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32627000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33033000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32552000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34077000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34739000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34218000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34345000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33513000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33672000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34554000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>35145000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33996000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>35342000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>35569000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>36878000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11974000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11296000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10719000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9904000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9244000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8532000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8199000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7775000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7399000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7142000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7018000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6818000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7073000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10681000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18751000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19111000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31186000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31386000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31658000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31712000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>31760000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>32022000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>32190000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35136000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>35284000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>36052000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>36470000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18608000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18068000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17199000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16325000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15347000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15004000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13362000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12762000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12543000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12071000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11941000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12040000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15561000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23760000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23913000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35852000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36103000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36162000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36533000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36484000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36924000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36842000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39573000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39520000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40606000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>41078000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E81" s="3">
         <v>934000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1064000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>907000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>959000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>510000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>601000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>550000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>431000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>299000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>374000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-82000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>333000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>492000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>421000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>539000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>644000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>430000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>525000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>545000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>279000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-205000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E83" s="3">
         <v>563000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>549000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>533000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>532000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>533000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>532000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>530000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>526000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>532000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>583000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>587000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>604000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>792000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>848000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>938000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>903000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>919000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>887000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>876000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>874000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>906000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>956000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>986000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>989000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1016000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1608000</v>
+      </c>
+      <c r="E89" s="3">
         <v>330000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1614000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1567000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>408000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>131000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1932000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1070000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1220000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>429000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>878000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>479000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>803000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>784000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2252000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1745000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1108000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>326000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2331000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1827000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>987000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>568000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2251000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1898000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>858000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>656000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2013000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-410000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-572000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-382000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-360000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-304000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-447000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-273000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-243000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-258000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-251000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-407000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-494000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-413000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-404000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-413000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-621000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-565000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-520000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-454000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-625000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-598000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-503000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-381000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-654000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-983000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-547000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-272000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1083000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>82000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-115000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-526000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-619000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>211000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>246000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-740000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-547000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-203000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-934000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-644000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-230000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-315000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-895000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-112000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>282000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>221000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>473000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-55000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,25 +7654,26 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-249000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-248000</v>
       </c>
       <c r="F96" s="3">
         <v>-248000</v>
       </c>
       <c r="G96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-177000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-175000</v>
       </c>
       <c r="I96" s="3">
         <v>-175000</v>
@@ -7451,7 +7685,7 @@
         <v>-175000</v>
       </c>
       <c r="L96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="M96" s="3">
         <v>-174000</v>
@@ -7460,10 +7694,10 @@
         <v>-174000</v>
       </c>
       <c r="O96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-692000</v>
       </c>
       <c r="Q96" s="3">
         <v>-692000</v>
@@ -7472,34 +7706,34 @@
         <v>-692000</v>
       </c>
       <c r="S96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-693000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-692000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-693000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-692000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-692000</v>
       </c>
       <c r="Y96" s="3">
         <v>-692000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-693000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-696000</v>
       </c>
       <c r="AC96" s="3">
         <v>-696000</v>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E100" s="3">
         <v>62000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1844000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-180000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-188000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-170000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-322000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-212000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-167000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>777000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-297000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-900000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-787000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>278000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-23000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-15000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>9000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-104000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-154000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-525000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>287000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>293000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-157000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>188000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>130000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>171000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>424000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-375000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-243000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>87000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>238000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-283000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>236000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-203000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-60000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>32000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-404000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>66000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>109000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-213000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-512000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>494000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8310000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8099000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7736000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7878000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7477000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6773000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5962000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6225000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5847000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5634000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5223000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5532000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5258000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5356000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7455000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8228000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8541000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8269000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7879000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8179000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8504000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8303000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7829000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8179000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7905000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7462000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6894000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7107000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>7019000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6592000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6502000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6285000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6307000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6042000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5568000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5013000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5136000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4862000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4768000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4504000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4828000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4624000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4925000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6614000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7136000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7382000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7236000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6956000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7193000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7305000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7184000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6834000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7169000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6787000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6469000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6082000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6113000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>6114000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1597000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1451000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1571000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1435000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1205000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>949000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1089000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>985000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>866000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>719000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>704000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>634000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>431000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>841000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1092000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1159000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1033000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>923000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>986000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1199000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1119000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>995000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1010000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1118000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>993000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>812000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>994000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,97 +1101,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E12" s="3">
         <v>163000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>174000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>178000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>160000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>154000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>141000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>145000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>140000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>134000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>135000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>128000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>137000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>142000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>173000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>190000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>176000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>179000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>173000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>178000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>177000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>175000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>172000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>192000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>189000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>196000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>211000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>262000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1275,26 +1295,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-36000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-83000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-216000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-26000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-28000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1302,61 +1322,64 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-42000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>350000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3724000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8523000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>209000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12692000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-43000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>184000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2796000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>49000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>591000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>82000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>676000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6859000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6761000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6514000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6501000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6296000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5592000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5225000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5082000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4972000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4720000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4986000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5196000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8872000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15437000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7664000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20370000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7529000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7241000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7442000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7587000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7657000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7117000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10266000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7140000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7366000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6473000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7149000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>6696000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1338000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1222000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1377000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1181000</v>
       </c>
       <c r="H18" s="3">
         <v>1181000</v>
       </c>
       <c r="I18" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="J18" s="3">
         <v>737000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>864000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>765000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>662000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>503000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>546000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>62000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3516000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7982000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>564000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11829000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>740000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>638000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>737000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>917000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>646000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>712000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2087000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>765000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>96000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>421000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-42000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>323000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1685,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>82000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>56000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>91000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>75000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>95000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>56000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>69000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>31000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>41000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>48000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>28000</v>
       </c>
       <c r="Z20" s="3">
         <v>28000</v>
       </c>
       <c r="AA20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>73000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>92000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>70000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-73000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1981000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1841000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2017000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1789000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1808000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1294000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1425000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1351000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1204000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1054000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1198000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>671000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2971000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7219000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1442000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10909000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1709000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1575000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1672000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1845000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1570000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1614000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1153000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1794000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1174000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1480000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>901000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1352000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E22" s="3">
         <v>127000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>117000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>121000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>122000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>124000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>123000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>137000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>130000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>136000</v>
       </c>
       <c r="M22" s="3">
         <v>136000</v>
       </c>
       <c r="N22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="O22" s="3">
         <v>144000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>138000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>78000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>142000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>162000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>178000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>163000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>105000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>171000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>147000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>97000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>151000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>161000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>171000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>157000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>99000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1293000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1161000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1347000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1134000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1152000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>638000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>756000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>691000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>542000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>386000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>471000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-54000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3627000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8089000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>452000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11971000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>593000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>509000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>648000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>787000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>547000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>643000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2210000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>677000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>334000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-214000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E24" s="3">
         <v>246000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>217000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>265000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>215000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>182000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>118000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>145000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-721000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>109000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-598000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>99000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>79000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>99000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>129000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>106000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>113000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>121000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>98000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>50000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-19000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1047000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>944000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1082000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>919000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>970000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>520000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>611000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>562000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>443000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>312000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>382000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-73000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3428000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7368000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>343000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11373000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>494000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>430000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>549000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>658000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>441000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>530000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2195000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>556000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-81000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>284000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-195000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1033000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>934000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1064000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>907000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>959000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>510000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>601000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>550000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>431000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>299000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>374000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-82000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3434000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7376000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>333000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11383000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>492000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>421000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>539000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>644000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>430000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>525000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2178000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>545000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>279000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-205000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2539,8 +2600,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2557,11 +2618,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2569,14 +2630,17 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-82000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-56000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-91000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-75000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-95000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-56000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-69000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>59000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-31000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-41000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-28000</v>
       </c>
       <c r="Z32" s="3">
         <v>-28000</v>
       </c>
       <c r="AA32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-73000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-92000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-70000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>73000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-31000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1033000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>934000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1064000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>907000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>959000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>510000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>601000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>550000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>431000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>299000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>374000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-82000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3434000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7376000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>333000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11383000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>492000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>421000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>539000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>644000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>430000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>525000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2254000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>545000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>279000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-205000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1033000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>934000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1064000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>907000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>959000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>510000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>601000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>550000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>431000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>299000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>374000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-82000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3434000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7376000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>333000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11383000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>492000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>421000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>539000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>644000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>430000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>525000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2254000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>545000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>279000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-205000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,809 +3355,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1930000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1501000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1655000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2180000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1893000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1757000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1569000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1439000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1268000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>844000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1219000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1462000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1375000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1137000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1183000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1466000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1230000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1433000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1493000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1461000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1865000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1799000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1690000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1903000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1902000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2929000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3441000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1264000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1003000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1239000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1429000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>923000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1049000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1382000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1373000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1243000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1642000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2162000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2618000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1969000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1030000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1109000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>882000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>925000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1344000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1361000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1588000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2300000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3290000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3262000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4315000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5451000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>6328000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>7315000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8049000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7675000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7578000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7032000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6650000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6247000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5713000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5315000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5349000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5347000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5269000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5552000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5808000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7486000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7747000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8332000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8471000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8171000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7881000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8409000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8606000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8472000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8084000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9436000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8925000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8636000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9387000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>9565000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4305000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4360000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4286000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3999000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4143000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3968000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3719000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3272000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3296000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3267000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3354000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3542000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3601000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4148000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4130000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4341000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4389000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4224000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4010000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4108000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4120000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4174000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4046000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4308000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4338000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4288000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4225000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4572000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E45" s="3">
         <v>925000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1032000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1078000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1209000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1285000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1172000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>928000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>781000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1325000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1312000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1284000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1381000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1288000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1486000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1186000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1125000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1223000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1063000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1112000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1125000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1244000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1278000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1218000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1792000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1606000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1058000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17038000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15400000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15003000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15611000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14316000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13253000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12654000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12387000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12077000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12807000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12919000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14215000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14379000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16266000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15530000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16151000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16333000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15773000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15731000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16483000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16900000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18055000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18497000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>19914000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21273000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>21883000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>23927000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>26425000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1601000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1554000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1581000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1762000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1767000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1955000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2044000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2110000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2035000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2090000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2061000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1436000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1484000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1515000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1565000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1335000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1558000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1544000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1538000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1497000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1487000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1483000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1519000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1566000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1720000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1481000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6875000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6804000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6691000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6607000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6407000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6386000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6354000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6429000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6375000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6473000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6620000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6826000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7396000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7729000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8550000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9270000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9605000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11359000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11533000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11679000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11739000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11504000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11556000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11576000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12338000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12358000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12507000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12821000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>13004000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16023000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16085000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16134000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15974000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16033000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16111000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16136000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16201000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16255000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16298000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16375000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16435000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16541000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16576000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16597000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23131000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23394000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33435000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>33556000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>33658000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34064000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34213000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34337000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34472000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34653000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34694000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>34788000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>34845000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>34794000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4255000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4182000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4076000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3970000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4280000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4247000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4269000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4183000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3911000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4025000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4144000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4193000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4478000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4499000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5666000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6816000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7505000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7906000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7915000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7901000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6263000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6052000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6047000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5923000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5183000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4971000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5277000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4882000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>4734000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45813000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44826000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43855000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43135000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44093000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42827000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41967000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41511000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41038000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40908000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42036000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42434000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44066000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44667000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48594000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56312000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57990000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70591000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70321000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70507000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70046000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>70156000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>71478000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>71987000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>73569000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>74862000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>76175000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>77956000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>80594000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,542 +4711,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9222000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8938000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9121000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9034000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8528000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8638000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8382000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7615000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7635000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7956000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8442000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9201000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9824000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10168000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10663000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10364000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9851000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9702000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10223000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9419000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9367000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9598000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10036000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9676000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9413000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9380000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9939000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>9378000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1993000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2140000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1632000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>899000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>901000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>923000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>909000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1025000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>749000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>850000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1292000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>603000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1233000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>524000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>340000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>98000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>99000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1407000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3215000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3736000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4586000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3324000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1289000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2224000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2449000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3153000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3739000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1412000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1265000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1201000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1154000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1135000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1068000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1095000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1113000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1168000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1199000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1158000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1861000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1911000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1779000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1824000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1896000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1856000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1966000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1963000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1922000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2049000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1890000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1947000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1967000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12528000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12163000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12252000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12018000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11134000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10583000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10696000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10359000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9735000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8784000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9873000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10491000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11651000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11665000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13262000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13098000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12483000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11773000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11697000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13486000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14600000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15066000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16195000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15282000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>13014000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>13527000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>13776000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15059000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>14972000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11147000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11342000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10698000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10594000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12452000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12946000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13163000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13286000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14370000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15687000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15834000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16036000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16471000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16763000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15409000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14770000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16333000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16978000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16449000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14644000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14159000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13865000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13526000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14875000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15871000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16600000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16538000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>16463000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>17538000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2431000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2387000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2525000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2534000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2996000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2673000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2469000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2580000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3268000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3378000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3357000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3418000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3575000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3783000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3940000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4268000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4847000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5567000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5651000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5791000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4339000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4328000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4431000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4569000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4674000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4783000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4807000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4905000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>5510000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26427000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26218000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25787000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25450000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26894000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26502000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26620000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26507000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27676000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28146000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29493000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30363000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32125000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32627000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33033000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32552000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34077000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34739000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34218000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34345000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33513000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33672000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34554000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>35145000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>33996000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>35342000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>35569000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>36878000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>38360000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12742000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11974000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11296000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10719000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9904000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9244000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8532000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8199000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7775000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7399000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7142000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7018000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6818000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7073000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10681000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18751000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19111000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31186000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31386000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31658000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>31712000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>31760000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>32022000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>32190000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>35136000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>35284000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>36052000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>36470000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>37370000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19386000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18608000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18068000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17685000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17199000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16325000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15347000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15004000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13362000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12762000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12543000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12071000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11941000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12040000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15561000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23760000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23913000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35852000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36103000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36162000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36533000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36484000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36924000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36842000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39573000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39520000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40606000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>41078000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>42234000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1033000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>934000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1064000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>907000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>959000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>510000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>601000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>550000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>431000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>299000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>374000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-82000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3434000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7376000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>333000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11383000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>492000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>421000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>539000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>644000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>430000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>525000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2254000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>545000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>279000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-205000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E83" s="3">
         <v>561000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>563000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>549000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>533000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>532000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>533000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>532000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>530000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>526000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>532000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>583000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>587000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>604000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>792000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>848000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>938000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>903000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>919000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>887000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>876000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>874000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>906000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>956000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>986000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>989000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1016000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>998000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1608000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>330000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1614000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1567000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>408000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>131000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1932000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1070000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1220000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>429000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>878000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>479000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>803000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>784000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2252000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1745000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1108000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>326000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2331000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1827000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>987000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>568000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2251000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1898000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>858000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>656000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2013000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1406000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-464000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-471000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-410000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-572000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-382000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-360000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-304000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-447000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-273000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-243000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-258000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-407000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-494000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-413000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-404000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-413000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-621000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-565000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-520000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-454000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-625000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-598000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-503000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-381000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-654000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-403000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-733000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-983000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-547000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-272000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1083000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>82000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-115000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-526000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-619000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>211000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>246000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-740000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-547000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1312000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-203000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-934000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-644000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-230000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-315000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-895000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-112000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>282000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>221000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>473000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-55000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7664,19 +7898,19 @@
         <v>-356000</v>
       </c>
       <c r="E96" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-249000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-248000</v>
       </c>
       <c r="G96" s="3">
         <v>-248000</v>
       </c>
       <c r="H96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-177000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-175000</v>
       </c>
       <c r="J96" s="3">
         <v>-175000</v>
@@ -7688,7 +7922,7 @@
         <v>-175000</v>
       </c>
       <c r="M96" s="3">
-        <v>-174000</v>
+        <v>-175000</v>
       </c>
       <c r="N96" s="3">
         <v>-174000</v>
@@ -7697,10 +7931,10 @@
         <v>-174000</v>
       </c>
       <c r="P96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-694000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-692000</v>
       </c>
       <c r="R96" s="3">
         <v>-692000</v>
@@ -7709,34 +7943,34 @@
         <v>-692000</v>
       </c>
       <c r="T96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-693000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-692000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-693000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-692000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-693000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-692000</v>
       </c>
       <c r="Z96" s="3">
         <v>-692000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-693000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-697000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-696000</v>
       </c>
       <c r="AD96" s="3">
         <v>-696000</v>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>-696000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-696000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-183000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>62000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1844000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-180000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-188000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-170000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1220000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1070000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-212000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1504000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>777000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2097000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1090000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-234000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-297000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2069000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-900000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1264000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-787000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>278000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2342000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1332000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1637000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2389000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1116000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>9000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-104000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E102" s="3">
         <v>429000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-154000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-525000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>287000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>293000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-157000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>188000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>130000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>171000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>424000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-375000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-243000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>87000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>238000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-283000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>236000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-203000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-60000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>32000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-404000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>66000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>109000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-213000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-512000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>494000</v>
       </c>
     </row>
